--- a/data/coded_segments/zm_6_4.xlsx
+++ b/data/coded_segments/zm_6_4.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Whiting/Repositories/amr-db/data/coded_segments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EEA8FCC-7F23-8543-9ADB-446EFCB6757A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="392">
   <si>
     <t>Color</t>
   </si>
@@ -101,6 +97,28 @@
     <t>7/23/18 13:38:00</t>
   </si>
   <si>
+    <t>Novel plasmid identification. NDM-1 is endemic to India.</t>
+  </si>
+  <si>
+    <t>20086</t>
+  </si>
+  <si>
+    <t>Exclusion: Not first case in country</t>
+  </si>
+  <si>
+    <t>1: 3236</t>
+  </si>
+  <si>
+    <t>1: 3377</t>
+  </si>
+  <si>
+    <t>To the best of our knowledge, this is the first report of IncHI3, a newly  
+assigned enterobacterial plasmid incompatibility group from India.</t>
+  </si>
+  <si>
+    <t>7/23/18 13:39:00</t>
+  </si>
+  <si>
     <t>20212</t>
   </si>
   <si>
@@ -113,73 +131,586 @@
     <t>7/23/18 13:48:00</t>
   </si>
   <si>
+    <t>20373</t>
+  </si>
+  <si>
+    <t>First Surveillance Study (of a particular resistance) in Countr</t>
+  </si>
+  <si>
+    <t>1: 2820</t>
+  </si>
+  <si>
+    <t>1: 2945</t>
+  </si>
+  <si>
+    <t>: This is the first known description of ESBL-producing and AmpC b-lactamase-producing Shigella 
+and of PMQR Shigella in Iran.</t>
+  </si>
+  <si>
+    <t>1: 1247</t>
+  </si>
+  <si>
+    <t>1: 1515</t>
+  </si>
+  <si>
+    <t>In this study, we wanted to assess the level of antimicrobial resistance, the presence of genes en- 
+coding resistance to cephalosporins and plasmid-mediated quinolone resistance (PMQR), and genetic related- 
+ness among Shigella isolates obtained from Iranian patients.</t>
+  </si>
+  <si>
+    <t>20520</t>
+  </si>
+  <si>
+    <t>1: 203</t>
+  </si>
+  <si>
+    <t>1: 223</t>
+  </si>
+  <si>
+    <t>Letters to the Editor</t>
+  </si>
+  <si>
+    <t>21083</t>
+  </si>
+  <si>
+    <t>Article/Study Aim</t>
+  </si>
+  <si>
+    <t>1: 754</t>
+  </si>
+  <si>
+    <t>1: 933</t>
+  </si>
+  <si>
+    <t>Here we report the microbiological characteristics of what are believed to be the two first 
+carbapenem-resistant VIM metallo-b-lactamase (MBL)-producing P. putida strains in Spain</t>
+  </si>
+  <si>
+    <t>7/23/18 13:53:00</t>
+  </si>
+  <si>
+    <t>All codes will be for patient 1</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>2: 3399</t>
+  </si>
+  <si>
+    <t>2: 3408</t>
+  </si>
+  <si>
+    <t>Patient 
+1</t>
+  </si>
+  <si>
+    <t>7/23/18 13:54:00</t>
+  </si>
+  <si>
+    <t>Drug Resisted</t>
+  </si>
+  <si>
+    <t>2: 3246</t>
+  </si>
+  <si>
+    <t>2: 3253</t>
+  </si>
+  <si>
+    <t>Imipenem</t>
+  </si>
+  <si>
+    <t>7/23/18 13:55:00</t>
+  </si>
+  <si>
+    <t>2: 3255</t>
+  </si>
+  <si>
+    <t>2: 3263</t>
+  </si>
+  <si>
+    <t>Meropenem</t>
+  </si>
+  <si>
+    <t>2: 3265</t>
+  </si>
+  <si>
+    <t>2: 3275</t>
+  </si>
+  <si>
+    <t>Ceftazidime</t>
+  </si>
+  <si>
+    <t>2: 3277</t>
+  </si>
+  <si>
+    <t>2: 3284</t>
+  </si>
+  <si>
+    <t>Cefepime</t>
+  </si>
+  <si>
+    <t>2: 3286</t>
+  </si>
+  <si>
+    <t>2: 3294</t>
+  </si>
+  <si>
+    <t>Aztreonam</t>
+  </si>
+  <si>
+    <t>2: 3295</t>
+  </si>
+  <si>
+    <t>2: 3319</t>
+  </si>
+  <si>
+    <t>Piperacillin/ 
+tazobactam</t>
+  </si>
+  <si>
+    <t>2: 3322</t>
+  </si>
+  <si>
+    <t>2: 3334</t>
+  </si>
+  <si>
+    <t>Ciprofloxacin</t>
+  </si>
+  <si>
+    <t>2: 3336</t>
+  </si>
+  <si>
+    <t>2: 3345</t>
+  </si>
+  <si>
+    <t>Gentamicin</t>
+  </si>
+  <si>
+    <t>2: 3347</t>
+  </si>
+  <si>
+    <t>2: 3356</t>
+  </si>
+  <si>
+    <t>Tobramycin</t>
+  </si>
+  <si>
+    <t>2: 3366</t>
+  </si>
+  <si>
+    <t>2: 3396</t>
+  </si>
+  <si>
+    <t>Trimethoprim/ 
+sulfamethoxazole</t>
+  </si>
+  <si>
+    <t>2: 3229</t>
+  </si>
+  <si>
+    <t>2: 3243</t>
+  </si>
+  <si>
+    <t>MIC (mg ml”1 
+)</t>
+  </si>
+  <si>
+    <t>MIC</t>
+  </si>
+  <si>
+    <t>2: 3411</t>
+  </si>
+  <si>
+    <t>2: 3413</t>
+  </si>
+  <si>
+    <t>.32</t>
+  </si>
+  <si>
+    <t>2: 3419</t>
+  </si>
+  <si>
+    <t>2: 3420</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2: 3425</t>
+  </si>
+  <si>
+    <t>2: 3426</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2: 3428</t>
+  </si>
+  <si>
+    <t>2: 3429</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>2: 3431</t>
+  </si>
+  <si>
+    <t>2: 3434</t>
+  </si>
+  <si>
+    <t>.256</t>
+  </si>
+  <si>
+    <t>2: 3441</t>
+  </si>
+  <si>
+    <t>2: 3442</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Bacteria:Binomial (genus species)</t>
+  </si>
+  <si>
+    <t>1: 645</t>
+  </si>
+  <si>
+    <t>1: 663</t>
+  </si>
+  <si>
+    <t>Pseudomonas 
+putida</t>
+  </si>
+  <si>
+    <t>7/23/18 13:56:00</t>
+  </si>
+  <si>
+    <t>Bacteria:Resistance Marker</t>
+  </si>
+  <si>
+    <t>1: 137</t>
+  </si>
+  <si>
+    <t>1: 141</t>
+  </si>
+  <si>
+    <t>VIM-2</t>
+  </si>
+  <si>
+    <t>7/23/18 13:57:00</t>
+  </si>
+  <si>
+    <t>Location:Country</t>
+  </si>
+  <si>
+    <t>1: 929</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Location:City</t>
+  </si>
+  <si>
+    <t>1: 3906</t>
+  </si>
+  <si>
+    <t>1: 3927</t>
+  </si>
+  <si>
+    <t>Santiago de Compostela</t>
+  </si>
+  <si>
+    <t>7/23/18 13:58:00</t>
+  </si>
+  <si>
+    <t>Location:Hospital name</t>
+  </si>
+  <si>
+    <t>1: 3874</t>
+  </si>
+  <si>
+    <t>University 
+Hospital Complex of Santiago de Compostela</t>
+  </si>
+  <si>
+    <t>Patient:Age</t>
+  </si>
+  <si>
+    <t>1: 3669</t>
+  </si>
+  <si>
+    <t>1: 3679</t>
+  </si>
+  <si>
+    <t>71-year-old</t>
+  </si>
+  <si>
+    <t>Patient:Sex</t>
+  </si>
+  <si>
+    <t>1: 3681</t>
+  </si>
+  <si>
+    <t>1: 3686</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Patient:Comorbidities</t>
+  </si>
+  <si>
+    <t>1: 3706</t>
+  </si>
+  <si>
+    <t>1: 3717</t>
+  </si>
+  <si>
+    <t>hypertension</t>
+  </si>
+  <si>
+    <t>1: 3722</t>
+  </si>
+  <si>
+    <t>1: 3755</t>
+  </si>
+  <si>
+    <t>nsulin-dependent diabetes mellitus</t>
+  </si>
+  <si>
+    <t>1: 3757</t>
+  </si>
+  <si>
+    <t>1: 3763</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stroke</t>
+  </si>
+  <si>
+    <t>1: 3766</t>
+  </si>
+  <si>
+    <t>1: 3803</t>
+  </si>
+  <si>
+    <t>chronic 
+obstructive pulmonary disease</t>
+  </si>
+  <si>
+    <t>1: 3806</t>
+  </si>
+  <si>
+    <t>1: 3852</t>
+  </si>
+  <si>
+    <t>psychiatric and lympho- 
+proliferative syndrome</t>
+  </si>
+  <si>
+    <t>Patient:Symptoms/Disease</t>
+  </si>
+  <si>
+    <t>1: 3952</t>
+  </si>
+  <si>
+    <t>1: 3959</t>
+  </si>
+  <si>
+    <t>dyspnoea</t>
+  </si>
+  <si>
+    <t>1: 4066</t>
+  </si>
+  <si>
+    <t>1: 4089</t>
+  </si>
+  <si>
+    <t>congestive heart failure</t>
+  </si>
+  <si>
+    <t>7/23/18 13:59:00</t>
+  </si>
+  <si>
+    <t>Patient:Outcome</t>
+  </si>
+  <si>
+    <t>2: 346</t>
+  </si>
+  <si>
+    <t>2: 355</t>
+  </si>
+  <si>
+    <t>discharged</t>
+  </si>
+  <si>
+    <t>2: 410</t>
+  </si>
+  <si>
+    <t>2: 443</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> readmitted a month later and died</t>
+  </si>
+  <si>
+    <t>No indication that this is the first reported VRE case in Taiwan</t>
+  </si>
+  <si>
+    <t>21144</t>
+  </si>
+  <si>
+    <t>2: 2466</t>
+  </si>
+  <si>
+    <t>2: 2596</t>
+  </si>
+  <si>
+    <t>To our knowledge, four cases of meningitis 
+caused by vancomycin-resistant E. faecium had been treated 
+with linezolid successfully</t>
+  </si>
+  <si>
+    <t>7/23/18 14:02:00</t>
+  </si>
+  <si>
+    <t>21160</t>
+  </si>
+  <si>
+    <t>Exclusion:Not clinical case in human patient</t>
+  </si>
+  <si>
+    <t>2: 584</t>
+  </si>
+  <si>
+    <t>2: 658</t>
+  </si>
+  <si>
+    <t>The investigation included environmental cultures for source investigation,</t>
+  </si>
+  <si>
+    <t>7/23/18 14:05:00</t>
+  </si>
+  <si>
+    <t>21247</t>
+  </si>
+  <si>
+    <t>4: 804</t>
+  </si>
+  <si>
+    <t>4: 1053</t>
+  </si>
+  <si>
+    <t>Overall though, there are worrying trends in  
+the emergence of CTX-M-producing E. coli 
+and Klebsiella species and gentamicin– and  
+ciprofloxacin-resistant E. coli now presenting in  
+or from the community. Other resistance patterns  
+appear stable</t>
+  </si>
+  <si>
+    <t>7/23/18 14:06:00</t>
+  </si>
+  <si>
+    <t>Unclear if this or Mathers et al. contains the first report of OXA-48 Klebsiella pneumoniae in Saudi Arabia</t>
+  </si>
+  <si>
+    <t>21389</t>
+  </si>
+  <si>
+    <t>5: 1877</t>
+  </si>
+  <si>
+    <t>5: 2192</t>
+  </si>
+  <si>
+    <t>This 
+is probably the first report of a carbapenem-resistant K. 
+pneumoniae outbreak in a hospital setting in Saudi Arabia involving 
+OXA-48, acknowledging the recent findings of Mathers et al. in a 
+patient who had travelled from Riyadh, Saudi Arabia and was 
+reported to be infected by K. pneumoniae with OXA-48.21</t>
+  </si>
+  <si>
+    <t>7/23/18 14:15:00</t>
+  </si>
+  <si>
+    <t>References for follow up</t>
+  </si>
+  <si>
+    <t>6: 7192</t>
+  </si>
+  <si>
+    <t>6: 7444</t>
+  </si>
+  <si>
+    <t>21. Mathers AJ, Hazen KC, Carroll J, Yeh AJ, Cox HL, Bonomo RA, et al. First clinical 
+cases of OXA-48-producing carbapenem-resistant Klebsiella pneumoniae in the 
+United States: the ‘‘menace’’ arrives in the new world. J Clin Microbiol 2013;51: 
+680–3.</t>
+  </si>
+  <si>
+    <t>21586</t>
+  </si>
+  <si>
+    <t>1: 773</t>
+  </si>
+  <si>
+    <t>1: 934</t>
+  </si>
+  <si>
+    <t>This study shows that MRSA from an animal reservoir has  
+recently entered the human population and is now respon- 
+sible for &gt;20% of all MRSA in the Netherlands.</t>
+  </si>
+  <si>
+    <t>7/23/18 14:17:00</t>
+  </si>
+  <si>
+    <t>21729</t>
+  </si>
+  <si>
+    <t>1: 2222</t>
+  </si>
+  <si>
+    <t>1: 2307</t>
+  </si>
+  <si>
+    <t>his is the first reported case of SCCmecA type IV MRSA found in the NHRU of the AUHAI.</t>
+  </si>
+  <si>
+    <t>7/23/18 14:19:00</t>
+  </si>
+  <si>
     <t>21975</t>
   </si>
   <si>
-    <t>7/23/18 14:19:00</t>
-  </si>
-  <si>
-    <t>22770</t>
-  </si>
-  <si>
-    <t>1: 19</t>
-  </si>
-  <si>
-    <t>LETTER TO THE EDITOR</t>
-  </si>
-  <si>
-    <t>7/24/18 11:31:00</t>
-  </si>
-  <si>
-    <t>22670</t>
-  </si>
-  <si>
-    <t>1: 5</t>
-  </si>
-  <si>
-    <t>1: 18</t>
-  </si>
-  <si>
-    <t>CORRESPONDENCE</t>
-  </si>
-  <si>
-    <t>7/24/18 11:13:00</t>
-  </si>
-  <si>
-    <t>21083</t>
-  </si>
-  <si>
-    <t>Bacteria:Resistance Marker</t>
-  </si>
-  <si>
-    <t>1: 137</t>
-  </si>
-  <si>
-    <t>1: 141</t>
-  </si>
-  <si>
-    <t>VIM-2</t>
-  </si>
-  <si>
-    <t>7/23/18 13:57:00</t>
-  </si>
-  <si>
-    <t>20520</t>
-  </si>
-  <si>
-    <t>1: 203</t>
-  </si>
-  <si>
-    <t>1: 223</t>
-  </si>
-  <si>
-    <t>Letters to the Editor</t>
+    <t>No index case resistance profiles</t>
+  </si>
+  <si>
+    <t>21980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclusion: no resistance or did not name antibiotic/antibiotic </t>
+  </si>
+  <si>
+    <t>1: 2359</t>
+  </si>
+  <si>
+    <t>1: 2539</t>
+  </si>
+  <si>
+    <t>This survey highlights the successful undetected dissemination of yet another carbapenemase in 
+Greece and strengthens the hypothesis of a latent NDM-1 cluster in the Balkan region.</t>
+  </si>
+  <si>
+    <t>7/23/18 14:23:00</t>
   </si>
   <si>
     <t>22072</t>
-  </si>
-  <si>
-    <t>Exclusion: Not first case in country</t>
   </si>
   <si>
     <t>1: 285</t>
@@ -201,10 +732,42 @@
     <t>7/23/18 14:24:00</t>
   </si>
   <si>
+    <t>22207</t>
+  </si>
+  <si>
+    <t>1: 3769</t>
+  </si>
+  <si>
+    <t>1: 3965</t>
+  </si>
+  <si>
+    <t>Recurrent GBS diseases were found to occur considerably more often than previously 
+thought, mainly in adults with a high comorbid index. Relapse, not new acquisition, was found to be 
+more common.</t>
+  </si>
+  <si>
+    <t>7/23/18 14:25:00</t>
+  </si>
+  <si>
+    <t>22463</t>
+  </si>
+  <si>
+    <t>1: 2246</t>
+  </si>
+  <si>
+    <t>1: 2390</t>
+  </si>
+  <si>
+    <t>A 2001 population- 
+based survey found that 0.8% of the participants car- 
+ried MRSA. Of the studies’ 75 MRSA isolates, only 6 
+(8%) were USA300.</t>
+  </si>
+  <si>
+    <t>7/23/18 14:27:00</t>
+  </si>
+  <si>
     <t>22605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exclusion: no resistance or did not name antibiotic/antibiotic </t>
   </si>
   <si>
     <t>1: 405</t>
@@ -221,37 +784,79 @@
     <t>7/24/18 11:00:00</t>
   </si>
   <si>
-    <t>23022</t>
-  </si>
-  <si>
-    <t>1: 459</t>
-  </si>
-  <si>
-    <t>1: 613</t>
-  </si>
-  <si>
-    <t>This article examines, retrospectively, antibiotic resistance in 
-patients with community- and nosocomial-acquired pneumonia caused 
-by Klebsiella species.</t>
-  </si>
-  <si>
-    <t>7/24/18 11:49:00</t>
-  </si>
-  <si>
-    <t>Bacteria:Binomial (genus species)</t>
-  </si>
-  <si>
-    <t>1: 645</t>
-  </si>
-  <si>
-    <t>1: 663</t>
-  </si>
-  <si>
-    <t>Pseudomonas 
-putida</t>
-  </si>
-  <si>
-    <t>7/23/18 13:56:00</t>
+    <t>Unclear if this is the first ever reported VR case or just the first reported case following endophthalmitis</t>
+  </si>
+  <si>
+    <t>22650</t>
+  </si>
+  <si>
+    <t>1: 2131</t>
+  </si>
+  <si>
+    <t>1: 2374</t>
+  </si>
+  <si>
+    <t>To our knowledge, there are no reports of vancomycin  
+resistance to Staphylococcus hominis following endophthalmitis. We report a case  
+of acute postoperative endophthalmitis caused by vancomycin-resistant S. hominis 
+treated at our hospital.</t>
+  </si>
+  <si>
+    <t>7/24/18 11:13:00</t>
+  </si>
+  <si>
+    <t>22670</t>
+  </si>
+  <si>
+    <t>1: 5</t>
+  </si>
+  <si>
+    <t>1: 18</t>
+  </si>
+  <si>
+    <t>CORRESPONDENCE</t>
+  </si>
+  <si>
+    <t>22685</t>
+  </si>
+  <si>
+    <t>1: 812</t>
+  </si>
+  <si>
+    <t>1: 902</t>
+  </si>
+  <si>
+    <t>The 
+emergence of community-associated MRSA infections would further aggravate the problem.</t>
+  </si>
+  <si>
+    <t>7/24/18 11:27:00</t>
+  </si>
+  <si>
+    <t>22738</t>
+  </si>
+  <si>
+    <t>1: 1871</t>
+  </si>
+  <si>
+    <t>1: 2034</t>
+  </si>
+  <si>
+    <t>To assess local carriage of resistant  
+N. meningitidis, we conducted a pharyngeal-carriage survey and isolated the resistant  
+strain from one asymptomatic carrier</t>
+  </si>
+  <si>
+    <t>7/24/18 11:31:00</t>
+  </si>
+  <si>
+    <t>22770</t>
+  </si>
+  <si>
+    <t>1: 19</t>
+  </si>
+  <si>
+    <t>LETTER TO THE EDITOR</t>
   </si>
   <si>
     <t>No indication that this is the first NDM-1 klebsiella pneumoniae strain in Japan</t>
@@ -274,79 +879,21 @@
 been to the Indian subcontinent.</t>
   </si>
   <si>
-    <t>Article/Study Aim</t>
-  </si>
-  <si>
-    <t>1: 754</t>
-  </si>
-  <si>
-    <t>1: 933</t>
-  </si>
-  <si>
-    <t>Here we report the microbiological characteristics of what are believed to be the two first 
-carbapenem-resistant VIM metallo-b-lactamase (MBL)-producing P. putida strains in Spain</t>
-  </si>
-  <si>
-    <t>7/23/18 13:53:00</t>
-  </si>
-  <si>
-    <t>21586</t>
-  </si>
-  <si>
-    <t>1: 773</t>
-  </si>
-  <si>
-    <t>1: 934</t>
-  </si>
-  <si>
-    <t>This study shows that MRSA from an animal reservoir has  
-recently entered the human population and is now respon- 
-sible for &gt;20% of all MRSA in the Netherlands.</t>
-  </si>
-  <si>
-    <t>7/23/18 14:17:00</t>
-  </si>
-  <si>
-    <t>22685</t>
-  </si>
-  <si>
-    <t>1: 812</t>
-  </si>
-  <si>
-    <t>1: 902</t>
-  </si>
-  <si>
-    <t>The 
-emergence of community-associated MRSA infections would further aggravate the problem.</t>
-  </si>
-  <si>
-    <t>7/24/18 11:27:00</t>
-  </si>
-  <si>
-    <t>Location:Country</t>
-  </si>
-  <si>
-    <t>1: 929</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>20373</t>
-  </si>
-  <si>
-    <t>First Surveillance Study (of a particular resistance) in Countr</t>
-  </si>
-  <si>
-    <t>1: 1247</t>
-  </si>
-  <si>
-    <t>1: 1515</t>
-  </si>
-  <si>
-    <t>In this study, we wanted to assess the level of antimicrobial resistance, the presence of genes en- 
-coding resistance to cephalosporins and plasmid-mediated quinolone resistance (PMQR), and genetic related- 
-ness among Shigella isolates obtained from Iranian patients.</t>
+    <t>7/24/18 11:49:00</t>
+  </si>
+  <si>
+    <t>23022</t>
+  </si>
+  <si>
+    <t>1: 459</t>
+  </si>
+  <si>
+    <t>1: 613</t>
+  </si>
+  <si>
+    <t>This article examines, retrospectively, antibiotic resistance in 
+patients with community- and nosocomial-acquired pneumonia caused 
+by Klebsiella species.</t>
   </si>
   <si>
     <t>23247</t>
@@ -365,108 +912,34 @@
     <t>7/24/18 11:54:00</t>
   </si>
   <si>
-    <t>Location:Hospital name</t>
-  </si>
-  <si>
-    <t>1: 1608</t>
-  </si>
-  <si>
-    <t>1: 1621</t>
-  </si>
-  <si>
-    <t>Milad Hospital</t>
-  </si>
-  <si>
-    <t>Sonia</t>
-  </si>
-  <si>
-    <t>10/16/18 11:57:00</t>
-  </si>
-  <si>
-    <t>Location:City</t>
-  </si>
-  <si>
-    <t>1: 1624</t>
-  </si>
-  <si>
-    <t>1: 1629</t>
-  </si>
-  <si>
-    <t>Tehran</t>
-  </si>
-  <si>
-    <t>1: 1633</t>
-  </si>
-  <si>
-    <t>1: 1636</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>22738</t>
-  </si>
-  <si>
-    <t>Exclusion:Not clinical case in human patient</t>
-  </si>
-  <si>
-    <t>1: 1871</t>
-  </si>
-  <si>
-    <t>1: 2034</t>
-  </si>
-  <si>
-    <t>To assess local carriage of resistant  
-N. meningitidis, we conducted a pharyngeal-carriage survey and isolated the resistant  
-strain from one asymptomatic carrier</t>
-  </si>
-  <si>
-    <t>Unclear if this is the first ever reported VR case or just the first reported case following endophthalmitis</t>
-  </si>
-  <si>
-    <t>22650</t>
-  </si>
-  <si>
-    <t>1: 2131</t>
-  </si>
-  <si>
-    <t>1: 2374</t>
-  </si>
-  <si>
-    <t>To our knowledge, there are no reports of vancomycin  
-resistance to Staphylococcus hominis following endophthalmitis. We report a case  
-of acute postoperative endophthalmitis caused by vancomycin-resistant S. hominis 
-treated at our hospital.</t>
-  </si>
-  <si>
-    <t>21729</t>
-  </si>
-  <si>
-    <t>1: 2222</t>
-  </si>
-  <si>
-    <t>1: 2307</t>
-  </si>
-  <si>
-    <t>his is the first reported case of SCCmecA type IV MRSA found in the NHRU of the AUHAI.</t>
-  </si>
-  <si>
-    <t>22463</t>
-  </si>
-  <si>
-    <t>1: 2246</t>
-  </si>
-  <si>
-    <t>1: 2390</t>
-  </si>
-  <si>
-    <t>A 2001 population- 
-based survey found that 0.8% of the participants car- 
-ried MRSA. Of the studies’ 75 MRSA isolates, only 6 
-(8%) were USA300.</t>
-  </si>
-  <si>
-    <t>7/23/18 14:27:00</t>
+    <t>1: 2589</t>
+  </si>
+  <si>
+    <t>1: 2811</t>
+  </si>
+  <si>
+    <t>VEB. In conclusion, blaVIM-2- and blaOXA-10-like genes were the most prevalent genes in P. aeruginosa in Egypt. To our 
+knowledge, this is the first report of blaVIM-2, blaIMP-1, blaNDM, and blaOXA-10 in P. aeruginosa in Eg</t>
+  </si>
+  <si>
+    <t>Novel CTX-M-15 producing clonal type, not novel resistance.</t>
+  </si>
+  <si>
+    <t>23524</t>
+  </si>
+  <si>
+    <t>1: 2927</t>
+  </si>
+  <si>
+    <t>1: 3093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To our knowledge, this is the first outbreak report of K. pneumoniae 
+ST1427, and our study could be of help to understand the features of this newly emerging 
+clone. </t>
+  </si>
+  <si>
+    <t>7/24/18 12:17:00</t>
   </si>
   <si>
     <t>23724</t>
@@ -489,516 +962,6 @@
     <t>7/24/18 12:18:00</t>
   </si>
   <si>
-    <t>No index case resistance profiles</t>
-  </si>
-  <si>
-    <t>21980</t>
-  </si>
-  <si>
-    <t>1: 2359</t>
-  </si>
-  <si>
-    <t>1: 2539</t>
-  </si>
-  <si>
-    <t>This survey highlights the successful undetected dissemination of yet another carbapenemase in 
-Greece and strengthens the hypothesis of a latent NDM-1 cluster in the Balkan region.</t>
-  </si>
-  <si>
-    <t>7/23/18 14:23:00</t>
-  </si>
-  <si>
-    <t>1: 2589</t>
-  </si>
-  <si>
-    <t>1: 2811</t>
-  </si>
-  <si>
-    <t>VEB. In conclusion, blaVIM-2- and blaOXA-10-like genes were the most prevalent genes in P. aeruginosa in Egypt. To our 
-knowledge, this is the first report of blaVIM-2, blaIMP-1, blaNDM, and blaOXA-10 in P. aeruginosa in Eg</t>
-  </si>
-  <si>
-    <t>1: 2820</t>
-  </si>
-  <si>
-    <t>1: 2945</t>
-  </si>
-  <si>
-    <t>: This is the first known description of ESBL-producing and AmpC b-lactamase-producing Shigella 
-and of PMQR Shigella in Iran.</t>
-  </si>
-  <si>
-    <t>Novel CTX-M-15 producing clonal type, not novel resistance.</t>
-  </si>
-  <si>
-    <t>23524</t>
-  </si>
-  <si>
-    <t>1: 2927</t>
-  </si>
-  <si>
-    <t>1: 3093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To our knowledge, this is the first outbreak report of K. pneumoniae 
-ST1427, and our study could be of help to understand the features of this newly emerging 
-clone. </t>
-  </si>
-  <si>
-    <t>7/24/18 12:17:00</t>
-  </si>
-  <si>
-    <t>Novel plasmid identification. NDM-1 is endemic to India.</t>
-  </si>
-  <si>
-    <t>20086</t>
-  </si>
-  <si>
-    <t>1: 3236</t>
-  </si>
-  <si>
-    <t>1: 3377</t>
-  </si>
-  <si>
-    <t>To the best of our knowledge, this is the first report of IncHI3, a newly  
-assigned enterobacterial plasmid incompatibility group from India.</t>
-  </si>
-  <si>
-    <t>7/23/18 13:39:00</t>
-  </si>
-  <si>
-    <t>Patient:Age</t>
-  </si>
-  <si>
-    <t>1: 3669</t>
-  </si>
-  <si>
-    <t>1: 3679</t>
-  </si>
-  <si>
-    <t>71-year-old</t>
-  </si>
-  <si>
-    <t>7/23/18 13:58:00</t>
-  </si>
-  <si>
-    <t>Patient:Sex</t>
-  </si>
-  <si>
-    <t>1: 3681</t>
-  </si>
-  <si>
-    <t>1: 3686</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>Patient:Comorbidities</t>
-  </si>
-  <si>
-    <t>1: 3706</t>
-  </si>
-  <si>
-    <t>1: 3717</t>
-  </si>
-  <si>
-    <t>hypertension</t>
-  </si>
-  <si>
-    <t>1: 3722</t>
-  </si>
-  <si>
-    <t>1: 3755</t>
-  </si>
-  <si>
-    <t>nsulin-dependent diabetes mellitus</t>
-  </si>
-  <si>
-    <t>1: 3757</t>
-  </si>
-  <si>
-    <t>1: 3763</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> stroke</t>
-  </si>
-  <si>
-    <t>1: 3766</t>
-  </si>
-  <si>
-    <t>1: 3803</t>
-  </si>
-  <si>
-    <t>chronic 
-obstructive pulmonary disease</t>
-  </si>
-  <si>
-    <t>22207</t>
-  </si>
-  <si>
-    <t>1: 3769</t>
-  </si>
-  <si>
-    <t>1: 3965</t>
-  </si>
-  <si>
-    <t>Recurrent GBS diseases were found to occur considerably more often than previously 
-thought, mainly in adults with a high comorbid index. Relapse, not new acquisition, was found to be 
-more common.</t>
-  </si>
-  <si>
-    <t>7/23/18 14:25:00</t>
-  </si>
-  <si>
-    <t>1: 3806</t>
-  </si>
-  <si>
-    <t>1: 3852</t>
-  </si>
-  <si>
-    <t>psychiatric and lympho- 
-proliferative syndrome</t>
-  </si>
-  <si>
-    <t>1: 3874</t>
-  </si>
-  <si>
-    <t>1: 3927</t>
-  </si>
-  <si>
-    <t>University 
-Hospital Complex of Santiago de Compostela</t>
-  </si>
-  <si>
-    <t>1: 3906</t>
-  </si>
-  <si>
-    <t>Santiago de Compostela</t>
-  </si>
-  <si>
-    <t>Patient:Symptoms/Disease</t>
-  </si>
-  <si>
-    <t>1: 3952</t>
-  </si>
-  <si>
-    <t>1: 3959</t>
-  </si>
-  <si>
-    <t>dyspnoea</t>
-  </si>
-  <si>
-    <t>1: 4066</t>
-  </si>
-  <si>
-    <t>1: 4089</t>
-  </si>
-  <si>
-    <t>congestive heart failure</t>
-  </si>
-  <si>
-    <t>7/23/18 13:59:00</t>
-  </si>
-  <si>
-    <t>Patient:Outcome</t>
-  </si>
-  <si>
-    <t>2: 346</t>
-  </si>
-  <si>
-    <t>2: 355</t>
-  </si>
-  <si>
-    <t>discharged</t>
-  </si>
-  <si>
-    <t>2: 410</t>
-  </si>
-  <si>
-    <t>2: 443</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> readmitted a month later and died</t>
-  </si>
-  <si>
-    <t>21160</t>
-  </si>
-  <si>
-    <t>2: 584</t>
-  </si>
-  <si>
-    <t>2: 658</t>
-  </si>
-  <si>
-    <t>The investigation included environmental cultures for source investigation,</t>
-  </si>
-  <si>
-    <t>7/23/18 14:05:00</t>
-  </si>
-  <si>
-    <t>No indication that this is the first reported VRE case in Taiwan</t>
-  </si>
-  <si>
-    <t>21144</t>
-  </si>
-  <si>
-    <t>2: 2466</t>
-  </si>
-  <si>
-    <t>2: 2596</t>
-  </si>
-  <si>
-    <t>To our knowledge, four cases of meningitis 
-caused by vancomycin-resistant E. faecium had been treated 
-with linezolid successfully</t>
-  </si>
-  <si>
-    <t>7/23/18 14:02:00</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>2: 3229</t>
-  </si>
-  <si>
-    <t>2: 3243</t>
-  </si>
-  <si>
-    <t>MIC (mg ml”1 
-)</t>
-  </si>
-  <si>
-    <t>7/23/18 13:55:00</t>
-  </si>
-  <si>
-    <t>Drug Resisted</t>
-  </si>
-  <si>
-    <t>2: 3246</t>
-  </si>
-  <si>
-    <t>2: 3253</t>
-  </si>
-  <si>
-    <t>Imipenem</t>
-  </si>
-  <si>
-    <t>2: 3255</t>
-  </si>
-  <si>
-    <t>2: 3263</t>
-  </si>
-  <si>
-    <t>Meropenem</t>
-  </si>
-  <si>
-    <t>2: 3265</t>
-  </si>
-  <si>
-    <t>2: 3275</t>
-  </si>
-  <si>
-    <t>Ceftazidime</t>
-  </si>
-  <si>
-    <t>2: 3277</t>
-  </si>
-  <si>
-    <t>2: 3284</t>
-  </si>
-  <si>
-    <t>Cefepime</t>
-  </si>
-  <si>
-    <t>2: 3286</t>
-  </si>
-  <si>
-    <t>2: 3294</t>
-  </si>
-  <si>
-    <t>Aztreonam</t>
-  </si>
-  <si>
-    <t>2: 3295</t>
-  </si>
-  <si>
-    <t>2: 3319</t>
-  </si>
-  <si>
-    <t>Piperacillin/ 
-tazobactam</t>
-  </si>
-  <si>
-    <t>2: 3322</t>
-  </si>
-  <si>
-    <t>2: 3334</t>
-  </si>
-  <si>
-    <t>Ciprofloxacin</t>
-  </si>
-  <si>
-    <t>2: 3336</t>
-  </si>
-  <si>
-    <t>2: 3345</t>
-  </si>
-  <si>
-    <t>Gentamicin</t>
-  </si>
-  <si>
-    <t>2: 3347</t>
-  </si>
-  <si>
-    <t>2: 3356</t>
-  </si>
-  <si>
-    <t>Tobramycin</t>
-  </si>
-  <si>
-    <t>2: 3366</t>
-  </si>
-  <si>
-    <t>2: 3396</t>
-  </si>
-  <si>
-    <t>Trimethoprim/ 
-sulfamethoxazole</t>
-  </si>
-  <si>
-    <t>All codes will be for patient 1</t>
-  </si>
-  <si>
-    <t>2: 3399</t>
-  </si>
-  <si>
-    <t>2: 3408</t>
-  </si>
-  <si>
-    <t>Patient 
-1</t>
-  </si>
-  <si>
-    <t>7/23/18 13:54:00</t>
-  </si>
-  <si>
-    <t>MIC</t>
-  </si>
-  <si>
-    <t>2: 3411</t>
-  </si>
-  <si>
-    <t>2: 3413</t>
-  </si>
-  <si>
-    <t>.32</t>
-  </si>
-  <si>
-    <t>2: 3419</t>
-  </si>
-  <si>
-    <t>2: 3420</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>2: 3425</t>
-  </si>
-  <si>
-    <t>2: 3426</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2: 3428</t>
-  </si>
-  <si>
-    <t>2: 3429</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>2: 3431</t>
-  </si>
-  <si>
-    <t>2: 3434</t>
-  </si>
-  <si>
-    <t>.256</t>
-  </si>
-  <si>
-    <t>2: 3441</t>
-  </si>
-  <si>
-    <t>2: 3442</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>21247</t>
-  </si>
-  <si>
-    <t>4: 804</t>
-  </si>
-  <si>
-    <t>4: 1053</t>
-  </si>
-  <si>
-    <t>Overall though, there are worrying trends in  
-the emergence of CTX-M-producing E. coli 
-and Klebsiella species and gentamicin– and  
-ciprofloxacin-resistant E. coli now presenting in  
-or from the community. Other resistance patterns  
-appear stable</t>
-  </si>
-  <si>
-    <t>7/23/18 14:06:00</t>
-  </si>
-  <si>
-    <t>Unclear if this or Mathers et al. contains the first report of OXA-48 Klebsiella pneumoniae in Saudi Arabia</t>
-  </si>
-  <si>
-    <t>21389</t>
-  </si>
-  <si>
-    <t>5: 1877</t>
-  </si>
-  <si>
-    <t>5: 2192</t>
-  </si>
-  <si>
-    <t>This 
-is probably the first report of a carbapenem-resistant K. 
-pneumoniae outbreak in a hospital setting in Saudi Arabia involving 
-OXA-48, acknowledging the recent findings of Mathers et al. in a 
-patient who had travelled from Riyadh, Saudi Arabia and was 
-reported to be infected by K. pneumoniae with OXA-48.21</t>
-  </si>
-  <si>
-    <t>7/23/18 14:15:00</t>
-  </si>
-  <si>
-    <t>References for follow up</t>
-  </si>
-  <si>
-    <t>6: 7192</t>
-  </si>
-  <si>
-    <t>6: 7444</t>
-  </si>
-  <si>
-    <t>21. Mathers AJ, Hazen KC, Carroll J, Yeh AJ, Cox HL, Bonomo RA, et al. First clinical 
-cases of OXA-48-producing carbapenem-resistant Klebsiella pneumoniae in the 
-United States: the ‘‘menace’’ arrives in the new world. J Clin Microbiol 2013;51: 
-680–3.</t>
-  </si>
-  <si>
     <t>This article needs to be included, but could not be coded by MaxQDA for some reason.</t>
   </si>
   <si>
@@ -1012,12 +975,299 @@
   </si>
   <si>
     <t>7/24/18 12:44:00</t>
+  </si>
+  <si>
+    <t>1: 1608</t>
+  </si>
+  <si>
+    <t>1: 1621</t>
+  </si>
+  <si>
+    <t>Milad Hospital</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>10/16/18 11:57:00</t>
+  </si>
+  <si>
+    <t>1: 1624</t>
+  </si>
+  <si>
+    <t>1: 1629</t>
+  </si>
+  <si>
+    <t>Tehran</t>
+  </si>
+  <si>
+    <t>1: 1633</t>
+  </si>
+  <si>
+    <t>1: 1636</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Bacteria:Strain</t>
+  </si>
+  <si>
+    <t>3: 3473</t>
+  </si>
+  <si>
+    <t>3: 3490</t>
+  </si>
+  <si>
+    <t>S. sonnei phase II</t>
+  </si>
+  <si>
+    <t>10/30/18 15:25:00</t>
+  </si>
+  <si>
+    <t>3: 3599</t>
+  </si>
+  <si>
+    <t>3: 3617</t>
+  </si>
+  <si>
+    <t>S. flexneri type 1b</t>
+  </si>
+  <si>
+    <t>10/30/18 15:29:00</t>
+  </si>
+  <si>
+    <t>3: 3715</t>
+  </si>
+  <si>
+    <t>3: 3737</t>
+  </si>
+  <si>
+    <t>S. flexneri 
+untypeable</t>
+  </si>
+  <si>
+    <t>3: 3819</t>
+  </si>
+  <si>
+    <t>3: 3837</t>
+  </si>
+  <si>
+    <t>S. flexneri type 2b</t>
+  </si>
+  <si>
+    <t>3: 3912</t>
+  </si>
+  <si>
+    <t>3: 3933</t>
+  </si>
+  <si>
+    <t>S. dysenteriae 
+type 2</t>
+  </si>
+  <si>
+    <t>10/30/18 15:30:00</t>
+  </si>
+  <si>
+    <t>3: 4025</t>
+  </si>
+  <si>
+    <t>3: 4040</t>
+  </si>
+  <si>
+    <t>S. boydii type 2</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>3: 4236</t>
+  </si>
+  <si>
+    <t>3: 4262</t>
+  </si>
+  <si>
+    <t>amoxicillin/clavulanic acid</t>
+  </si>
+  <si>
+    <t>3: 4270</t>
+  </si>
+  <si>
+    <t>3: 4279</t>
+  </si>
+  <si>
+    <t>ampicillin</t>
+  </si>
+  <si>
+    <t>10/30/18 15:31:00</t>
+  </si>
+  <si>
+    <t>3: 4287</t>
+  </si>
+  <si>
+    <t>3: 4295</t>
+  </si>
+  <si>
+    <t>ceftiofur</t>
+  </si>
+  <si>
+    <t>3: 4345</t>
+  </si>
+  <si>
+    <t>3: 4354</t>
+  </si>
+  <si>
+    <t>gentamicin</t>
+  </si>
+  <si>
+    <t>3: 4362</t>
+  </si>
+  <si>
+    <t>3: 4371</t>
+  </si>
+  <si>
+    <t>cefotaxime</t>
+  </si>
+  <si>
+    <t>3: 4379</t>
+  </si>
+  <si>
+    <t>3: 4393</t>
+  </si>
+  <si>
+    <t>nalidixic acid;</t>
+  </si>
+  <si>
+    <t>3: 4400</t>
+  </si>
+  <si>
+    <t>3: 4407</t>
+  </si>
+  <si>
+    <t>neomycin</t>
+  </si>
+  <si>
+    <t>10/30/18 15:32:00</t>
+  </si>
+  <si>
+    <t>3: 4416</t>
+  </si>
+  <si>
+    <t>3: 4428</t>
+  </si>
+  <si>
+    <t>spectinomycin</t>
+  </si>
+  <si>
+    <t>3: 4436</t>
+  </si>
+  <si>
+    <t>3: 4447</t>
+  </si>
+  <si>
+    <t>streptomycin</t>
+  </si>
+  <si>
+    <t>3: 4455</t>
+  </si>
+  <si>
+    <t>3: 4470</t>
+  </si>
+  <si>
+    <t>sulfamethoxazole</t>
+  </si>
+  <si>
+    <t>3: 4478</t>
+  </si>
+  <si>
+    <t>3: 4489</t>
+  </si>
+  <si>
+    <t>tetracycline</t>
+  </si>
+  <si>
+    <t>10/30/18 15:33:00</t>
+  </si>
+  <si>
+    <t>3: 4497</t>
+  </si>
+  <si>
+    <t>3: 4508</t>
+  </si>
+  <si>
+    <t>trimethoprim</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>10/30/18 15:34:00</t>
+  </si>
+  <si>
+    <t>10/30/18 15:35:00</t>
+  </si>
+  <si>
+    <t>10/30/18 15:36:00</t>
+  </si>
+  <si>
+    <t>3: 4303</t>
+  </si>
+  <si>
+    <t>3: 4317</t>
+  </si>
+  <si>
+    <t>chloramphenicol</t>
+  </si>
+  <si>
+    <t>3: 4325</t>
+  </si>
+  <si>
+    <t>3: 4337</t>
+  </si>
+  <si>
+    <t>ciprofloxacin</t>
+  </si>
+  <si>
+    <t>10/30/18 15:37:00</t>
+  </si>
+  <si>
+    <t>3: 4392</t>
+  </si>
+  <si>
+    <t>nalidixic acid</t>
+  </si>
+  <si>
+    <t>10/30/18 15:38:00</t>
+  </si>
+  <si>
+    <t>10/30/18 15:39:00</t>
+  </si>
+  <si>
+    <t>10/30/18 15:40:00</t>
+  </si>
+  <si>
+    <t>10/30/18 15:41:00</t>
+  </si>
+  <si>
+    <t>10/30/18 15:42:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1167,10 +1417,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1182,18 +1435,24 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>3333750</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1237,7 +1496,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1249,7 +1508,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1266,9 +1525,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1296,14 +1555,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1331,6 +1607,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1482,8 +1775,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M139"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1622,45 +1915,45 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J4" s="3">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="K4" s="4">
-        <v>2.8681999999999999E-2</v>
+        <v>0.46468700000000002</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1674,7 +1967,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -1683,28 +1976,28 @@
         <v>17</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="J5" s="3">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K5" s="4">
-        <v>1.1931000000000001E-2</v>
+        <v>2.8681999999999999E-2</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1715,37 +2008,37 @@
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J6" s="3">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="K6" s="4">
-        <v>0.26072200000000001</v>
+        <v>0.42087000000000002</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1756,34 +2049,34 @@
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J7" s="3">
-        <v>14</v>
+        <v>269</v>
       </c>
       <c r="K7" s="4">
-        <v>0.14052000000000001</v>
+        <v>0.89852399999999999</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1797,37 +2090,37 @@
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J8" s="3">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="K8" s="4">
-        <v>4.4951999999999999E-2</v>
+        <v>0.21766199999999999</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -1838,78 +2131,78 @@
         <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J9" s="3">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="K9" s="4">
-        <v>0.21766199999999999</v>
+        <v>1.618268</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J10" s="3">
-        <v>410</v>
+        <v>10</v>
       </c>
       <c r="K10" s="4">
-        <v>2.6351309999999999</v>
+        <v>8.9903999999999998E-2</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -1920,37 +2213,37 @@
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J11" s="3">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="K11" s="4">
-        <v>6.7736000000000005E-2</v>
+        <v>7.1923000000000001E-2</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -1961,37 +2254,37 @@
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J12" s="3">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="K12" s="4">
-        <v>0.31918000000000002</v>
+        <v>8.0912999999999999E-2</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -2002,10 +2295,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>68</v>
@@ -2020,60 +2313,60 @@
         <v>70</v>
       </c>
       <c r="J13" s="3">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K13" s="4">
-        <v>0.170817</v>
+        <v>9.8893999999999996E-2</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="84" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="J14" s="3">
-        <v>284</v>
+        <v>8</v>
       </c>
       <c r="K14" s="4">
-        <v>0.73925600000000002</v>
+        <v>7.1923000000000001E-2</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -2084,37 +2377,37 @@
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J15" s="3">
-        <v>180</v>
+        <v>9</v>
       </c>
       <c r="K15" s="4">
-        <v>1.618268</v>
+        <v>8.0912999999999999E-2</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -2125,37 +2418,37 @@
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J16" s="3">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="K16" s="4">
-        <v>0.67347100000000004</v>
+        <v>0.22475999999999999</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
@@ -2166,34 +2459,34 @@
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J17" s="3">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="K17" s="4">
-        <v>0.55379699999999998</v>
+        <v>0.11687500000000001</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2207,37 +2500,37 @@
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="J18" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K18" s="4">
-        <v>4.4951999999999999E-2</v>
+        <v>8.9903999999999998E-2</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
@@ -2248,37 +2541,37 @@
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="J19" s="3">
-        <v>269</v>
+        <v>10</v>
       </c>
       <c r="K19" s="4">
-        <v>0.89852399999999999</v>
+        <v>8.9903999999999998E-2</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
@@ -2289,37 +2582,37 @@
         <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="J20" s="3">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="K20" s="4">
-        <v>0.61052200000000001</v>
+        <v>0.27870200000000001</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
@@ -2330,34 +2623,34 @@
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="J21" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K21" s="4">
-        <v>4.6762999999999999E-2</v>
+        <v>0.134856</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2371,34 +2664,34 @@
         <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="J22" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K22" s="4">
-        <v>2.0041E-2</v>
+        <v>2.6970999999999998E-2</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2412,37 +2705,37 @@
         <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="J23" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K23" s="4">
-        <v>1.3361E-2</v>
+        <v>1.7981E-2</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2453,78 +2746,78 @@
         <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="J24" s="3">
-        <v>162</v>
+        <v>2</v>
       </c>
       <c r="K24" s="4">
-        <v>0.44468800000000003</v>
+        <v>1.7981E-2</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="J25" s="3">
-        <v>242</v>
+        <v>2</v>
       </c>
       <c r="K25" s="4">
-        <v>2.4807790000000001</v>
+        <v>1.7981E-2</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2535,37 +2828,37 @@
         <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="J26" s="3">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="K26" s="4">
-        <v>0.250861</v>
+        <v>3.5962000000000001E-2</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>13</v>
       </c>
@@ -2576,37 +2869,37 @@
         <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="J27" s="3">
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="K27" s="4">
-        <v>0.36174000000000001</v>
+        <v>1.7981E-2</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2617,78 +2910,78 @@
         <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="J28" s="3">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="K28" s="4">
-        <v>7.3460999999999999E-2</v>
+        <v>0.170817</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="J29" s="3">
-        <v>181</v>
+        <v>5</v>
       </c>
       <c r="K29" s="4">
-        <v>0.49825199999999997</v>
+        <v>4.4951999999999999E-2</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2699,37 +2992,37 @@
         <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="J30" s="3">
-        <v>223</v>
+        <v>5</v>
       </c>
       <c r="K30" s="4">
-        <v>0.65141800000000005</v>
+        <v>4.4951999999999999E-2</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -2740,116 +3033,116 @@
         <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="J31" s="3">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="K31" s="4">
-        <v>0.42087000000000002</v>
+        <v>0.19778799999999999</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="J32" s="3">
-        <v>166</v>
+        <v>54</v>
       </c>
       <c r="K32" s="4">
-        <v>0.34014299999999997</v>
+        <v>0.485481</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="J33" s="3">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="K33" s="4">
-        <v>0.46468700000000002</v>
+        <v>9.8893999999999996E-2</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2863,34 +3156,34 @@
         <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="J34" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K34" s="4">
-        <v>9.8893999999999996E-2</v>
+        <v>5.3941999999999997E-2</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2904,34 +3197,34 @@
         <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="J35" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K35" s="4">
-        <v>5.3941999999999997E-2</v>
+        <v>0.10788499999999999</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2945,34 +3238,34 @@
         <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="J36" s="3">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K36" s="4">
-        <v>0.10788499999999999</v>
+        <v>0.30567299999999997</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2986,37 +3279,37 @@
         <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="J37" s="3">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="K37" s="4">
-        <v>0.30567299999999997</v>
+        <v>5.3941999999999997E-2</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>13</v>
       </c>
@@ -3027,37 +3320,37 @@
         <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="J38" s="3">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="K38" s="4">
-        <v>5.3941999999999997E-2</v>
+        <v>0.34163399999999999</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -3068,37 +3361,37 @@
         <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="J39" s="3">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K39" s="4">
-        <v>0.34163399999999999</v>
+        <v>0.42254799999999998</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>13</v>
       </c>
@@ -3109,37 +3402,37 @@
         <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="J40" s="3">
-        <v>197</v>
+        <v>8</v>
       </c>
       <c r="K40" s="4">
-        <v>0.549068</v>
+        <v>7.1923000000000001E-2</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>13</v>
       </c>
@@ -3150,37 +3443,37 @@
         <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="J41" s="3">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="K41" s="4">
-        <v>0.42254799999999998</v>
+        <v>0.21576899999999999</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>13</v>
       </c>
@@ -3191,34 +3484,34 @@
         <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="J42" s="3">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="K42" s="4">
-        <v>0.485481</v>
+        <v>8.9903999999999998E-2</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3232,78 +3525,78 @@
         <v>14</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="J43" s="3">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K43" s="4">
-        <v>0.19778799999999999</v>
+        <v>0.29668299999999997</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="J44" s="3">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="K44" s="4">
-        <v>7.1923000000000001E-2</v>
+        <v>1.3138099999999999</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>13</v>
       </c>
@@ -3314,37 +3607,37 @@
         <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="J45" s="3">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="K45" s="4">
-        <v>0.21576899999999999</v>
+        <v>0.224746</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>13</v>
       </c>
@@ -3355,78 +3648,78 @@
         <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>210</v>
+        <v>27</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="J46" s="3">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="K46" s="4">
-        <v>8.9903999999999998E-2</v>
+        <v>1.2864089999999999</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>210</v>
+        <v>27</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="J47" s="3">
-        <v>33</v>
+        <v>316</v>
       </c>
       <c r="K47" s="4">
-        <v>0.29668299999999997</v>
+        <v>0.99857799999999997</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>13</v>
       </c>
@@ -3437,78 +3730,78 @@
         <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="J48" s="3">
-        <v>75</v>
+        <v>316</v>
       </c>
       <c r="K48" s="4">
-        <v>0.224746</v>
+        <v>0.99857799999999997</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>51</v>
+        <v>197</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="J49" s="3">
-        <v>131</v>
+        <v>253</v>
       </c>
       <c r="K49" s="4">
-        <v>1.3138099999999999</v>
+        <v>0.79949400000000004</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>13</v>
       </c>
@@ -3519,37 +3812,37 @@
         <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>228</v>
+        <v>27</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="H50" s="3">
         <v>0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="J50" s="3">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="K50" s="4">
-        <v>0.134856</v>
+        <v>0.67347100000000004</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>13</v>
       </c>
@@ -3560,34 +3853,34 @@
         <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="H51" s="3">
         <v>0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="J51" s="3">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="K51" s="4">
-        <v>7.1923000000000001E-2</v>
+        <v>0.250861</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3601,78 +3894,78 @@
         <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>237</v>
+        <v>17</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>239</v>
+        <v>19</v>
       </c>
       <c r="J52" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K52" s="4">
-        <v>8.0912999999999999E-2</v>
+        <v>1.1931000000000001E-2</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="J53" s="3">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="K53" s="4">
-        <v>9.8893999999999996E-2</v>
+        <v>0.49825199999999997</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="120" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>13</v>
       </c>
@@ -3683,37 +3976,37 @@
         <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="J54" s="3">
-        <v>8</v>
+        <v>410</v>
       </c>
       <c r="K54" s="4">
-        <v>7.1923000000000001E-2</v>
+        <v>2.6351309999999999</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -3724,78 +4017,78 @@
         <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="H55" s="3">
         <v>0</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="J55" s="3">
-        <v>9</v>
+        <v>197</v>
       </c>
       <c r="K55" s="4">
-        <v>8.0912999999999999E-2</v>
+        <v>0.549068</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M55" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="60" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="28" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H56" s="3">
-        <v>0</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="J56" s="3">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="K56" s="4">
-        <v>0.22475999999999999</v>
+        <v>0.36174000000000001</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>13</v>
       </c>
@@ -3806,75 +4099,75 @@
         <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="J57" s="3">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="K57" s="4">
-        <v>0.11687500000000001</v>
+        <v>6.7736000000000005E-2</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="J58" s="3">
-        <v>10</v>
+        <v>242</v>
       </c>
       <c r="K58" s="4">
-        <v>8.9903999999999998E-2</v>
+        <v>2.4807790000000001</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3888,37 +4181,37 @@
         <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>40</v>
+        <v>245</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="J59" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K59" s="4">
-        <v>8.9903999999999998E-2</v>
+        <v>0.14052000000000001</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>13</v>
       </c>
@@ -3929,75 +4222,75 @@
         <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="J60" s="3">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="K60" s="4">
-        <v>0.27870200000000001</v>
+        <v>0.55379699999999998</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>264</v>
+        <v>14</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="J61" s="3">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="K61" s="4">
-        <v>8.9903999999999998E-2</v>
+        <v>0.44468800000000003</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4011,78 +4304,78 @@
         <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>269</v>
+        <v>16</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>270</v>
+        <v>17</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="J62" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K62" s="4">
-        <v>2.6970999999999998E-2</v>
+        <v>0.26072200000000001</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>40</v>
+        <v>263</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>269</v>
+        <v>27</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="H63" s="3">
         <v>0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="J63" s="3">
-        <v>2</v>
+        <v>284</v>
       </c>
       <c r="K63" s="4">
-        <v>1.7981E-2</v>
+        <v>0.73925600000000002</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>13</v>
       </c>
@@ -4093,37 +4386,37 @@
         <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="G64" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H64" s="3">
         <v>0</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="J64" s="3">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="K64" s="4">
-        <v>1.7981E-2</v>
+        <v>0.31918000000000002</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>13</v>
       </c>
@@ -4134,37 +4427,37 @@
         <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>269</v>
+        <v>27</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H65" s="3">
         <v>0</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="J65" s="3">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="K65" s="4">
-        <v>1.7981E-2</v>
+        <v>0.61052200000000001</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>13</v>
       </c>
@@ -4175,78 +4468,78 @@
         <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>269</v>
+        <v>37</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="J66" s="3">
-        <v>4</v>
+        <v>223</v>
       </c>
       <c r="K66" s="4">
-        <v>3.5962000000000001E-2</v>
+        <v>0.65141800000000005</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>14</v>
+        <v>280</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>269</v>
+        <v>27</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H67" s="3">
         <v>0</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J67" s="3">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="K67" s="4">
-        <v>1.7981E-2</v>
+        <v>0.34014299999999997</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>13</v>
       </c>
@@ -4257,119 +4550,117 @@
         <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F68" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="H68" s="3">
+        <v>0</v>
+      </c>
+      <c r="I68" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="H68" s="3">
-        <v>0</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="J68" s="3">
-        <v>246</v>
+        <v>97</v>
       </c>
       <c r="K68" s="4">
-        <v>1.2864089999999999</v>
+        <v>7.3460999999999999E-2</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M68" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" ht="84" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F69" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="H69" s="3">
         <v>0</v>
       </c>
-      <c r="I69" s="2" t="s">
-        <v>297</v>
-      </c>
+      <c r="I69" s="1"/>
       <c r="J69" s="3">
-        <v>316</v>
+        <v>18624</v>
       </c>
       <c r="K69" s="4">
-        <v>0.99857799999999997</v>
+        <v>0.52009899999999998</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M69" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" ht="84" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E70" s="1" t="s">
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>297</v>
-      </c>
       <c r="J70" s="3">
-        <v>316</v>
+        <v>14</v>
       </c>
       <c r="K70" s="4">
-        <v>0.99857799999999997</v>
+        <v>4.6762999999999999E-2</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="98" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>13</v>
       </c>
@@ -4380,51 +4671,51 @@
         <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>294</v>
+        <v>36</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>299</v>
+        <v>127</v>
       </c>
       <c r="F71" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H71" s="3">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J71" s="3">
+        <v>6</v>
+      </c>
+      <c r="K71" s="4">
+        <v>2.0041E-2</v>
+      </c>
+      <c r="L71" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="M71" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H71" s="3">
-        <v>0</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="J71" s="3">
-        <v>253</v>
-      </c>
-      <c r="K71" s="4">
-        <v>0.79949400000000004</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>303</v>
+        <v>14</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>304</v>
+        <v>36</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>228</v>
+        <v>124</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>305</v>
@@ -4435,18 +4726,2767 @@
       <c r="H72" s="3">
         <v>0</v>
       </c>
-      <c r="I72" s="1"/>
+      <c r="I72" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="J72" s="3">
-        <v>18624</v>
+        <v>4</v>
       </c>
       <c r="K72" s="4">
-        <v>0.52009899999999998</v>
+        <v>1.3361E-2</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H73" s="3">
+        <v>0</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="J73" s="3">
+        <v>18</v>
+      </c>
+      <c r="K73" s="4">
+        <v>6.0123999999999997E-2</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H74" s="3">
+        <v>0</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="J74" s="3">
+        <v>19</v>
+      </c>
+      <c r="K74" s="4">
+        <v>6.3464000000000007E-2</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H75" s="3">
+        <v>0</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="J75" s="3">
+        <v>23</v>
+      </c>
+      <c r="K75" s="4">
+        <v>7.6825000000000004E-2</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J76" s="3">
+        <v>19</v>
+      </c>
+      <c r="K76" s="4">
+        <v>6.3464000000000007E-2</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H77" s="3">
+        <v>0</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="J77" s="3">
+        <v>22</v>
+      </c>
+      <c r="K77" s="4">
+        <v>7.3484999999999995E-2</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H78" s="3">
+        <v>0</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J78" s="3">
+        <v>16</v>
+      </c>
+      <c r="K78" s="4">
+        <v>5.3443999999999998E-2</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H79" s="3">
+        <v>0</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="J79" s="3">
+        <v>18</v>
+      </c>
+      <c r="K79" s="4">
+        <v>6.0123999999999997E-2</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H80" s="3">
+        <v>0</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="J80" s="3">
+        <v>27</v>
+      </c>
+      <c r="K80" s="4">
+        <v>9.0186000000000002E-2</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J81" s="3">
+        <v>10</v>
+      </c>
+      <c r="K81" s="4">
+        <v>3.3402000000000001E-2</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H82" s="3">
+        <v>0</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="J82" s="3">
+        <v>9</v>
+      </c>
+      <c r="K82" s="4">
+        <v>3.0061999999999998E-2</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="J83" s="3">
+        <v>10</v>
+      </c>
+      <c r="K83" s="4">
+        <v>3.3402000000000001E-2</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H84" s="3">
+        <v>0</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J84" s="3">
+        <v>10</v>
+      </c>
+      <c r="K84" s="4">
+        <v>3.3402000000000001E-2</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H85" s="3">
+        <v>0</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="J85" s="3">
+        <v>15</v>
+      </c>
+      <c r="K85" s="4">
+        <v>5.0104000000000003E-2</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H86" s="3">
+        <v>0</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="J86" s="3">
+        <v>8</v>
+      </c>
+      <c r="K86" s="4">
+        <v>2.6721999999999999E-2</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H87" s="3">
+        <v>0</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="J87" s="3">
+        <v>13</v>
+      </c>
+      <c r="K87" s="4">
+        <v>4.3423000000000003E-2</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H88" s="3">
+        <v>0</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J88" s="3">
+        <v>12</v>
+      </c>
+      <c r="K88" s="4">
+        <v>4.0083000000000001E-2</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J89" s="3">
+        <v>16</v>
+      </c>
+      <c r="K89" s="4">
+        <v>5.3443999999999998E-2</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H90" s="3">
+        <v>0</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="J90" s="3">
+        <v>12</v>
+      </c>
+      <c r="K90" s="4">
+        <v>4.0083000000000001E-2</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J91" s="3">
+        <v>12</v>
+      </c>
+      <c r="K91" s="4">
+        <v>4.0083000000000001E-2</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H92" s="3">
+        <v>0</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="J92" s="3">
+        <v>27</v>
+      </c>
+      <c r="K92" s="4">
+        <v>9.0186000000000002E-2</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H93" s="3">
+        <v>0</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="J93" s="3">
+        <v>27</v>
+      </c>
+      <c r="K93" s="4">
+        <v>9.0186000000000002E-2</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="J94" s="3">
+        <v>27</v>
+      </c>
+      <c r="K94" s="4">
+        <v>9.0186000000000002E-2</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H95" s="3">
+        <v>0</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="J95" s="3">
+        <v>27</v>
+      </c>
+      <c r="K95" s="4">
+        <v>9.0186000000000002E-2</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="J96" s="3">
+        <v>27</v>
+      </c>
+      <c r="K96" s="4">
+        <v>9.0186000000000002E-2</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H97" s="3">
+        <v>0</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="J97" s="3">
+        <v>9</v>
+      </c>
+      <c r="K97" s="4">
+        <v>3.0061999999999998E-2</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H98" s="3">
+        <v>0</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J98" s="3">
+        <v>10</v>
+      </c>
+      <c r="K98" s="4">
+        <v>3.3402000000000001E-2</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H99" s="3">
+        <v>0</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J99" s="3">
+        <v>10</v>
+      </c>
+      <c r="K99" s="4">
+        <v>3.3402000000000001E-2</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J100" s="3">
+        <v>10</v>
+      </c>
+      <c r="K100" s="4">
+        <v>3.3402000000000001E-2</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J101" s="3">
+        <v>10</v>
+      </c>
+      <c r="K101" s="4">
+        <v>3.3402000000000001E-2</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="J102" s="3">
+        <v>15</v>
+      </c>
+      <c r="K102" s="4">
+        <v>5.0104000000000003E-2</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H103" s="3">
+        <v>0</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="J103" s="3">
+        <v>15</v>
+      </c>
+      <c r="K103" s="4">
+        <v>5.0104000000000003E-2</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A104" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H104" s="3">
+        <v>0</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="J104" s="3">
+        <v>15</v>
+      </c>
+      <c r="K104" s="4">
+        <v>5.0104000000000003E-2</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H105" s="3">
+        <v>0</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="J105" s="3">
+        <v>15</v>
+      </c>
+      <c r="K105" s="4">
+        <v>5.0104000000000003E-2</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="H106" s="3">
+        <v>0</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="J106" s="3">
+        <v>13</v>
+      </c>
+      <c r="K106" s="4">
+        <v>4.3423000000000003E-2</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="H107" s="3">
+        <v>0</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="J107" s="3">
+        <v>13</v>
+      </c>
+      <c r="K107" s="4">
+        <v>4.3423000000000003E-2</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H108" s="3">
+        <v>0</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="J108" s="3">
+        <v>10</v>
+      </c>
+      <c r="K108" s="4">
+        <v>3.3402000000000001E-2</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H109" s="3">
+        <v>0</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J109" s="3">
+        <v>10</v>
+      </c>
+      <c r="K109" s="4">
+        <v>3.3402000000000001E-2</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H110" s="3">
+        <v>0</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="J110" s="3">
+        <v>14</v>
+      </c>
+      <c r="K110" s="4">
+        <v>4.6762999999999999E-2</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A111" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H111" s="3">
+        <v>0</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="J111" s="3">
+        <v>8</v>
+      </c>
+      <c r="K111" s="4">
+        <v>2.6721999999999999E-2</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H112" s="3">
+        <v>0</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="J112" s="3">
+        <v>13</v>
+      </c>
+      <c r="K112" s="4">
+        <v>4.3423000000000003E-2</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H113" s="3">
+        <v>0</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="J113" s="3">
+        <v>13</v>
+      </c>
+      <c r="K113" s="4">
+        <v>4.3423000000000003E-2</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H114" s="3">
+        <v>0</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="J114" s="3">
+        <v>13</v>
+      </c>
+      <c r="K114" s="4">
+        <v>4.3423000000000003E-2</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H115" s="3">
+        <v>0</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="J115" s="3">
+        <v>13</v>
+      </c>
+      <c r="K115" s="4">
+        <v>4.3423000000000003E-2</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H116" s="3">
+        <v>0</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="J116" s="3">
+        <v>13</v>
+      </c>
+      <c r="K116" s="4">
+        <v>4.3423000000000003E-2</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H117" s="3">
+        <v>0</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J117" s="3">
+        <v>12</v>
+      </c>
+      <c r="K117" s="4">
+        <v>4.0083000000000001E-2</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H118" s="3">
+        <v>0</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J118" s="3">
+        <v>12</v>
+      </c>
+      <c r="K118" s="4">
+        <v>4.0083000000000001E-2</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H119" s="3">
+        <v>0</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J119" s="3">
+        <v>12</v>
+      </c>
+      <c r="K119" s="4">
+        <v>4.0083000000000001E-2</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A120" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H120" s="3">
+        <v>0</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J120" s="3">
+        <v>12</v>
+      </c>
+      <c r="K120" s="4">
+        <v>4.0083000000000001E-2</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H121" s="3">
+        <v>0</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J121" s="3">
+        <v>12</v>
+      </c>
+      <c r="K121" s="4">
+        <v>4.0083000000000001E-2</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A122" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H122" s="3">
+        <v>0</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J122" s="3">
+        <v>16</v>
+      </c>
+      <c r="K122" s="4">
+        <v>5.3443999999999998E-2</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H123" s="3">
+        <v>0</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J123" s="3">
+        <v>16</v>
+      </c>
+      <c r="K123" s="4">
+        <v>5.3443999999999998E-2</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A124" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H124" s="3">
+        <v>0</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J124" s="3">
+        <v>16</v>
+      </c>
+      <c r="K124" s="4">
+        <v>5.3443999999999998E-2</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H125" s="3">
+        <v>0</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J125" s="3">
+        <v>16</v>
+      </c>
+      <c r="K125" s="4">
+        <v>5.3443999999999998E-2</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A126" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H126" s="3">
+        <v>0</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="J126" s="3">
+        <v>12</v>
+      </c>
+      <c r="K126" s="4">
+        <v>4.0083000000000001E-2</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H127" s="3">
+        <v>0</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="J127" s="3">
+        <v>12</v>
+      </c>
+      <c r="K127" s="4">
+        <v>4.0083000000000001E-2</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H128" s="3">
+        <v>0</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="J128" s="3">
+        <v>12</v>
+      </c>
+      <c r="K128" s="4">
+        <v>4.0083000000000001E-2</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A129" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H129" s="3">
+        <v>0</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="J129" s="3">
+        <v>12</v>
+      </c>
+      <c r="K129" s="4">
+        <v>4.0083000000000001E-2</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H130" s="3">
+        <v>0</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J130" s="3">
+        <v>12</v>
+      </c>
+      <c r="K130" s="4">
+        <v>4.0083000000000001E-2</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A131" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H131" s="3">
+        <v>0</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J131" s="3">
+        <v>12</v>
+      </c>
+      <c r="K131" s="4">
+        <v>4.0083000000000001E-2</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A132" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H132" s="3">
+        <v>0</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J132" s="3">
+        <v>12</v>
+      </c>
+      <c r="K132" s="4">
+        <v>4.0083000000000001E-2</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H133" s="3">
+        <v>0</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J133" s="3">
+        <v>12</v>
+      </c>
+      <c r="K133" s="4">
+        <v>4.0083000000000001E-2</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A134" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H134" s="3">
+        <v>0</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J134" s="3">
+        <v>12</v>
+      </c>
+      <c r="K134" s="4">
+        <v>4.0083000000000001E-2</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H135" s="3">
+        <v>0</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="J135" s="3">
+        <v>19</v>
+      </c>
+      <c r="K135" s="4">
+        <v>6.3464000000000007E-2</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A136" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H136" s="3">
+        <v>0</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="J136" s="3">
+        <v>23</v>
+      </c>
+      <c r="K136" s="4">
+        <v>7.6825000000000004E-2</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A137" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H137" s="3">
+        <v>0</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="J137" s="3">
+        <v>22</v>
+      </c>
+      <c r="K137" s="4">
+        <v>7.3484999999999995E-2</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A138" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H138" s="3">
+        <v>0</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="J138" s="3">
+        <v>22</v>
+      </c>
+      <c r="K138" s="4">
+        <v>7.3484999999999995E-2</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A139" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H139" s="3">
+        <v>0</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J139" s="3">
+        <v>16</v>
+      </c>
+      <c r="K139" s="4">
+        <v>5.3443999999999998E-2</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/data/coded_segments/zm_6_4.xlsx
+++ b/data/coded_segments/zm_6_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EEA8FCC-7F23-8543-9ADB-446EFCB6757A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3EE41B5-68A4-BC49-9E72-FB285167C95B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="404">
   <si>
     <t>Color</t>
   </si>
@@ -1056,6 +1056,201 @@
     <t>S. flexneri type 2b</t>
   </si>
   <si>
+    <t>3: 4025</t>
+  </si>
+  <si>
+    <t>3: 4040</t>
+  </si>
+  <si>
+    <t>S. boydii type 2</t>
+  </si>
+  <si>
+    <t>10/30/18 15:30:00</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>3: 4236</t>
+  </si>
+  <si>
+    <t>3: 4262</t>
+  </si>
+  <si>
+    <t>amoxicillin/clavulanic acid</t>
+  </si>
+  <si>
+    <t>3: 4270</t>
+  </si>
+  <si>
+    <t>3: 4279</t>
+  </si>
+  <si>
+    <t>ampicillin</t>
+  </si>
+  <si>
+    <t>10/30/18 15:31:00</t>
+  </si>
+  <si>
+    <t>3: 4287</t>
+  </si>
+  <si>
+    <t>3: 4295</t>
+  </si>
+  <si>
+    <t>ceftiofur</t>
+  </si>
+  <si>
+    <t>3: 4345</t>
+  </si>
+  <si>
+    <t>3: 4354</t>
+  </si>
+  <si>
+    <t>gentamicin</t>
+  </si>
+  <si>
+    <t>3: 4362</t>
+  </si>
+  <si>
+    <t>3: 4371</t>
+  </si>
+  <si>
+    <t>cefotaxime</t>
+  </si>
+  <si>
+    <t>3: 4379</t>
+  </si>
+  <si>
+    <t>3: 4393</t>
+  </si>
+  <si>
+    <t>nalidixic acid;</t>
+  </si>
+  <si>
+    <t>3: 4400</t>
+  </si>
+  <si>
+    <t>3: 4407</t>
+  </si>
+  <si>
+    <t>neomycin</t>
+  </si>
+  <si>
+    <t>10/30/18 15:32:00</t>
+  </si>
+  <si>
+    <t>3: 4416</t>
+  </si>
+  <si>
+    <t>3: 4428</t>
+  </si>
+  <si>
+    <t>spectinomycin</t>
+  </si>
+  <si>
+    <t>3: 4436</t>
+  </si>
+  <si>
+    <t>3: 4447</t>
+  </si>
+  <si>
+    <t>streptomycin</t>
+  </si>
+  <si>
+    <t>3: 4455</t>
+  </si>
+  <si>
+    <t>3: 4470</t>
+  </si>
+  <si>
+    <t>sulfamethoxazole</t>
+  </si>
+  <si>
+    <t>3: 4478</t>
+  </si>
+  <si>
+    <t>3: 4489</t>
+  </si>
+  <si>
+    <t>tetracycline</t>
+  </si>
+  <si>
+    <t>10/30/18 15:33:00</t>
+  </si>
+  <si>
+    <t>3: 4497</t>
+  </si>
+  <si>
+    <t>3: 4508</t>
+  </si>
+  <si>
+    <t>trimethoprim</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>10/30/18 15:34:00</t>
+  </si>
+  <si>
+    <t>10/30/18 15:35:00</t>
+  </si>
+  <si>
+    <t>10/30/18 15:36:00</t>
+  </si>
+  <si>
+    <t>3: 4303</t>
+  </si>
+  <si>
+    <t>3: 4317</t>
+  </si>
+  <si>
+    <t>chloramphenicol</t>
+  </si>
+  <si>
+    <t>3: 4325</t>
+  </si>
+  <si>
+    <t>3: 4337</t>
+  </si>
+  <si>
+    <t>ciprofloxacin</t>
+  </si>
+  <si>
+    <t>10/30/18 15:37:00</t>
+  </si>
+  <si>
+    <t>3: 4392</t>
+  </si>
+  <si>
+    <t>nalidixic acid</t>
+  </si>
+  <si>
+    <t>10/30/18 15:38:00</t>
+  </si>
+  <si>
+    <t>10/30/18 15:39:00</t>
+  </si>
+  <si>
+    <t>10/30/18 15:40:00</t>
+  </si>
+  <si>
+    <t>10/30/18 15:41:00</t>
+  </si>
+  <si>
     <t>3: 3912</t>
   </si>
   <si>
@@ -1066,202 +1261,43 @@
 type 2</t>
   </si>
   <si>
-    <t>10/30/18 15:30:00</t>
-  </si>
-  <si>
-    <t>3: 4025</t>
-  </si>
-  <si>
-    <t>3: 4040</t>
-  </si>
-  <si>
-    <t>S. boydii type 2</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>3: 4236</t>
-  </si>
-  <si>
-    <t>3: 4262</t>
-  </si>
-  <si>
-    <t>amoxicillin/clavulanic acid</t>
-  </si>
-  <si>
-    <t>3: 4270</t>
-  </si>
-  <si>
-    <t>3: 4279</t>
-  </si>
-  <si>
-    <t>ampicillin</t>
-  </si>
-  <si>
-    <t>10/30/18 15:31:00</t>
-  </si>
-  <si>
-    <t>3: 4287</t>
-  </si>
-  <si>
-    <t>3: 4295</t>
-  </si>
-  <si>
-    <t>ceftiofur</t>
-  </si>
-  <si>
-    <t>3: 4345</t>
-  </si>
-  <si>
-    <t>3: 4354</t>
-  </si>
-  <si>
-    <t>gentamicin</t>
-  </si>
-  <si>
-    <t>3: 4362</t>
-  </si>
-  <si>
-    <t>3: 4371</t>
-  </si>
-  <si>
-    <t>cefotaxime</t>
-  </si>
-  <si>
-    <t>3: 4379</t>
-  </si>
-  <si>
-    <t>3: 4393</t>
-  </si>
-  <si>
-    <t>nalidixic acid;</t>
-  </si>
-  <si>
-    <t>3: 4400</t>
-  </si>
-  <si>
-    <t>3: 4407</t>
-  </si>
-  <si>
-    <t>neomycin</t>
-  </si>
-  <si>
-    <t>10/30/18 15:32:00</t>
-  </si>
-  <si>
-    <t>3: 4416</t>
-  </si>
-  <si>
-    <t>3: 4428</t>
-  </si>
-  <si>
-    <t>spectinomycin</t>
-  </si>
-  <si>
-    <t>3: 4436</t>
-  </si>
-  <si>
-    <t>3: 4447</t>
-  </si>
-  <si>
-    <t>streptomycin</t>
-  </si>
-  <si>
-    <t>3: 4455</t>
-  </si>
-  <si>
-    <t>3: 4470</t>
-  </si>
-  <si>
-    <t>sulfamethoxazole</t>
-  </si>
-  <si>
-    <t>3: 4478</t>
-  </si>
-  <si>
-    <t>3: 4489</t>
-  </si>
-  <si>
-    <t>tetracycline</t>
-  </si>
-  <si>
-    <t>10/30/18 15:33:00</t>
-  </si>
-  <si>
-    <t>3: 4497</t>
-  </si>
-  <si>
-    <t>3: 4508</t>
-  </si>
-  <si>
-    <t>trimethoprim</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>10/30/18 15:34:00</t>
-  </si>
-  <si>
-    <t>10/30/18 15:35:00</t>
-  </si>
-  <si>
-    <t>10/30/18 15:36:00</t>
-  </si>
-  <si>
-    <t>3: 4303</t>
-  </si>
-  <si>
-    <t>3: 4317</t>
-  </si>
-  <si>
-    <t>chloramphenicol</t>
-  </si>
-  <si>
-    <t>3: 4325</t>
-  </si>
-  <si>
-    <t>3: 4337</t>
-  </si>
-  <si>
-    <t>ciprofloxacin</t>
-  </si>
-  <si>
-    <t>10/30/18 15:37:00</t>
-  </si>
-  <si>
-    <t>3: 4392</t>
-  </si>
-  <si>
-    <t>nalidixic acid</t>
-  </si>
-  <si>
-    <t>10/30/18 15:38:00</t>
-  </si>
-  <si>
-    <t>10/30/18 15:39:00</t>
-  </si>
-  <si>
-    <t>10/30/18 15:40:00</t>
-  </si>
-  <si>
-    <t>10/30/18 15:41:00</t>
-  </si>
-  <si>
     <t>10/30/18 15:42:00</t>
+  </si>
+  <si>
+    <t>11/8/18 15:00:00</t>
+  </si>
+  <si>
+    <t>11/8/18 15:01:00</t>
+  </si>
+  <si>
+    <t>11/8/18 15:02:00</t>
+  </si>
+  <si>
+    <t>3: 3608</t>
+  </si>
+  <si>
+    <t>S. flexner</t>
+  </si>
+  <si>
+    <t>3: 3725</t>
+  </si>
+  <si>
+    <t>S. flexneri</t>
+  </si>
+  <si>
+    <t>3: 3828</t>
+  </si>
+  <si>
+    <t>3: 3925</t>
+  </si>
+  <si>
+    <t>S. dysenteriae</t>
+  </si>
+  <si>
+    <t>3: 4033</t>
+  </si>
+  <si>
+    <t>S. boydii</t>
   </si>
 </sst>
 </file>
@@ -1776,7 +1812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:M146"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4906,7 +4942,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>13</v>
       </c>
@@ -4935,10 +4971,10 @@
         <v>325</v>
       </c>
       <c r="J77" s="3">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K77" s="4">
-        <v>7.3484999999999995E-2</v>
+        <v>5.3443999999999998E-2</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>300</v>
@@ -4961,25 +4997,25 @@
         <v>36</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="H78" s="3">
         <v>0</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="J78" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K78" s="4">
-        <v>5.3443999999999998E-2</v>
+        <v>6.0123999999999997E-2</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>300</v>
@@ -5002,25 +5038,25 @@
         <v>36</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H79" s="3">
+        <v>0</v>
+      </c>
+      <c r="I79" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="H79" s="3">
-        <v>0</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="J79" s="3">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K79" s="4">
-        <v>6.0123999999999997E-2</v>
+        <v>9.0186000000000002E-2</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>300</v>
@@ -5043,7 +5079,7 @@
         <v>36</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>331</v>
@@ -5058,16 +5094,16 @@
         <v>333</v>
       </c>
       <c r="J80" s="3">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="K80" s="4">
-        <v>9.0186000000000002E-2</v>
+        <v>3.3402000000000001E-2</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>300</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5084,31 +5120,31 @@
         <v>36</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J81" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K81" s="4">
-        <v>3.3402000000000001E-2</v>
+        <v>3.0061999999999998E-2</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>300</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5125,7 +5161,7 @@
         <v>36</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>338</v>
@@ -5140,16 +5176,16 @@
         <v>340</v>
       </c>
       <c r="J82" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K82" s="4">
-        <v>3.0061999999999998E-2</v>
+        <v>3.3402000000000001E-2</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>300</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5166,7 +5202,7 @@
         <v>36</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>341</v>
@@ -5190,7 +5226,7 @@
         <v>300</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5207,7 +5243,7 @@
         <v>36</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>344</v>
@@ -5222,16 +5258,16 @@
         <v>346</v>
       </c>
       <c r="J84" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K84" s="4">
-        <v>3.3402000000000001E-2</v>
+        <v>5.0104000000000003E-2</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>300</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5248,7 +5284,7 @@
         <v>36</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>347</v>
@@ -5263,16 +5299,16 @@
         <v>349</v>
       </c>
       <c r="J85" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K85" s="4">
-        <v>5.0104000000000003E-2</v>
+        <v>2.6721999999999999E-2</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>300</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5289,31 +5325,31 @@
         <v>36</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H86" s="3">
         <v>0</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J86" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K86" s="4">
-        <v>2.6721999999999999E-2</v>
+        <v>4.3423000000000003E-2</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>300</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5330,7 +5366,7 @@
         <v>36</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>354</v>
@@ -5345,16 +5381,16 @@
         <v>356</v>
       </c>
       <c r="J87" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K87" s="4">
-        <v>4.3423000000000003E-2</v>
+        <v>4.0083000000000001E-2</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>300</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5371,7 +5407,7 @@
         <v>36</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>357</v>
@@ -5386,16 +5422,16 @@
         <v>359</v>
       </c>
       <c r="J88" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K88" s="4">
-        <v>4.0083000000000001E-2</v>
+        <v>5.3443999999999998E-2</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>300</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5412,7 +5448,7 @@
         <v>36</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>360</v>
@@ -5427,16 +5463,16 @@
         <v>362</v>
       </c>
       <c r="J89" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K89" s="4">
-        <v>5.3443999999999998E-2</v>
+        <v>4.0083000000000001E-2</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>300</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5453,19 +5489,19 @@
         <v>36</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H90" s="3">
         <v>0</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J90" s="3">
         <v>12</v>
@@ -5477,7 +5513,7 @@
         <v>300</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5494,31 +5530,31 @@
         <v>36</v>
       </c>
       <c r="E91" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="J91" s="3">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="K91" s="4">
-        <v>4.0083000000000001E-2</v>
+        <v>9.0186000000000002E-2</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>300</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5535,19 +5571,19 @@
         <v>36</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H92" s="3">
         <v>0</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J92" s="3">
         <v>27</v>
@@ -5559,7 +5595,7 @@
         <v>300</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5576,19 +5612,19 @@
         <v>36</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H93" s="3">
         <v>0</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J93" s="3">
         <v>27</v>
@@ -5600,7 +5636,7 @@
         <v>300</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5617,19 +5653,19 @@
         <v>36</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J94" s="3">
         <v>27</v>
@@ -5641,7 +5677,7 @@
         <v>300</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5658,19 +5694,19 @@
         <v>36</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H95" s="3">
         <v>0</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J95" s="3">
         <v>27</v>
@@ -5682,7 +5718,7 @@
         <v>300</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5699,31 +5735,31 @@
         <v>36</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="J96" s="3">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="K96" s="4">
-        <v>9.0186000000000002E-2</v>
+        <v>3.0061999999999998E-2</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>300</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5740,31 +5776,31 @@
         <v>36</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="H97" s="3">
         <v>0</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="J97" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K97" s="4">
-        <v>3.0061999999999998E-2</v>
+        <v>3.3402000000000001E-2</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>300</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5781,19 +5817,19 @@
         <v>36</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H98" s="3">
         <v>0</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J98" s="3">
         <v>10</v>
@@ -5805,7 +5841,7 @@
         <v>300</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5822,19 +5858,19 @@
         <v>36</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H99" s="3">
         <v>0</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J99" s="3">
         <v>10</v>
@@ -5846,7 +5882,7 @@
         <v>300</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5863,19 +5899,19 @@
         <v>36</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J100" s="3">
         <v>10</v>
@@ -5887,7 +5923,7 @@
         <v>300</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5904,31 +5940,31 @@
         <v>36</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="J101" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K101" s="4">
-        <v>3.3402000000000001E-2</v>
+        <v>5.0104000000000003E-2</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>300</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5945,19 +5981,19 @@
         <v>36</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J102" s="3">
         <v>15</v>
@@ -5969,7 +6005,7 @@
         <v>300</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5986,19 +6022,19 @@
         <v>36</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H103" s="3">
         <v>0</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J103" s="3">
         <v>15</v>
@@ -6010,7 +6046,7 @@
         <v>300</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6027,19 +6063,19 @@
         <v>36</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H104" s="3">
         <v>0</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J104" s="3">
         <v>15</v>
@@ -6051,7 +6087,7 @@
         <v>300</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6068,7 +6104,7 @@
         <v>36</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>378</v>
@@ -6083,16 +6119,16 @@
         <v>380</v>
       </c>
       <c r="J105" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K105" s="4">
-        <v>5.0104000000000003E-2</v>
+        <v>4.3423000000000003E-2</v>
       </c>
       <c r="L105" s="1" t="s">
         <v>300</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6109,19 +6145,19 @@
         <v>36</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H106" s="3">
         <v>0</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="J106" s="3">
         <v>13</v>
@@ -6133,7 +6169,7 @@
         <v>300</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6150,31 +6186,31 @@
         <v>36</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>381</v>
+        <v>338</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>382</v>
+        <v>339</v>
       </c>
       <c r="H107" s="3">
         <v>0</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>383</v>
+        <v>340</v>
       </c>
       <c r="J107" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K107" s="4">
-        <v>4.3423000000000003E-2</v>
+        <v>3.3402000000000001E-2</v>
       </c>
       <c r="L107" s="1" t="s">
         <v>300</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6191,7 +6227,7 @@
         <v>36</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>341</v>
@@ -6215,7 +6251,7 @@
         <v>300</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6232,31 +6268,31 @@
         <v>36</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>344</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="H109" s="3">
         <v>0</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="J109" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K109" s="4">
-        <v>3.3402000000000001E-2</v>
+        <v>4.6762999999999999E-2</v>
       </c>
       <c r="L109" s="1" t="s">
         <v>300</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6273,31 +6309,31 @@
         <v>36</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>347</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="H110" s="3">
         <v>0</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="J110" s="3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K110" s="4">
-        <v>4.6762999999999999E-2</v>
+        <v>2.6721999999999999E-2</v>
       </c>
       <c r="L110" s="1" t="s">
         <v>300</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6314,25 +6350,25 @@
         <v>36</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H111" s="3">
         <v>0</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J111" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K111" s="4">
-        <v>2.6721999999999999E-2</v>
+        <v>4.3423000000000003E-2</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>300</v>
@@ -6355,19 +6391,19 @@
         <v>36</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H112" s="3">
         <v>0</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="J112" s="3">
         <v>13</v>
@@ -6379,7 +6415,7 @@
         <v>300</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6396,19 +6432,19 @@
         <v>36</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H113" s="3">
         <v>0</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="J113" s="3">
         <v>13</v>
@@ -6420,7 +6456,7 @@
         <v>300</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6437,19 +6473,19 @@
         <v>36</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H114" s="3">
         <v>0</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="J114" s="3">
         <v>13</v>
@@ -6461,7 +6497,7 @@
         <v>300</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6478,19 +6514,19 @@
         <v>36</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H115" s="3">
         <v>0</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="J115" s="3">
         <v>13</v>
@@ -6502,7 +6538,7 @@
         <v>300</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6519,7 +6555,7 @@
         <v>36</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>354</v>
@@ -6534,16 +6570,16 @@
         <v>356</v>
       </c>
       <c r="J116" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K116" s="4">
-        <v>4.3423000000000003E-2</v>
+        <v>4.0083000000000001E-2</v>
       </c>
       <c r="L116" s="1" t="s">
         <v>300</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6560,19 +6596,19 @@
         <v>36</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H117" s="3">
         <v>0</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J117" s="3">
         <v>12</v>
@@ -6584,7 +6620,7 @@
         <v>300</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6601,19 +6637,19 @@
         <v>36</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H118" s="3">
         <v>0</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J118" s="3">
         <v>12</v>
@@ -6625,7 +6661,7 @@
         <v>300</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6642,19 +6678,19 @@
         <v>36</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H119" s="3">
         <v>0</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J119" s="3">
         <v>12</v>
@@ -6666,7 +6702,7 @@
         <v>300</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6683,19 +6719,19 @@
         <v>36</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H120" s="3">
         <v>0</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J120" s="3">
         <v>12</v>
@@ -6707,7 +6743,7 @@
         <v>300</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6724,7 +6760,7 @@
         <v>36</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>357</v>
@@ -6739,16 +6775,16 @@
         <v>359</v>
       </c>
       <c r="J121" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K121" s="4">
-        <v>4.0083000000000001E-2</v>
+        <v>5.3443999999999998E-2</v>
       </c>
       <c r="L121" s="1" t="s">
         <v>300</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6765,19 +6801,19 @@
         <v>36</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H122" s="3">
         <v>0</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J122" s="3">
         <v>16</v>
@@ -6789,7 +6825,7 @@
         <v>300</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6806,19 +6842,19 @@
         <v>36</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H123" s="3">
         <v>0</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J123" s="3">
         <v>16</v>
@@ -6830,7 +6866,7 @@
         <v>300</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="124" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6847,19 +6883,19 @@
         <v>36</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H124" s="3">
         <v>0</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J124" s="3">
         <v>16</v>
@@ -6871,7 +6907,7 @@
         <v>300</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6888,7 +6924,7 @@
         <v>36</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>360</v>
@@ -6903,16 +6939,16 @@
         <v>362</v>
       </c>
       <c r="J125" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K125" s="4">
-        <v>5.3443999999999998E-2</v>
+        <v>4.0083000000000001E-2</v>
       </c>
       <c r="L125" s="1" t="s">
         <v>300</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6929,19 +6965,19 @@
         <v>36</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H126" s="3">
         <v>0</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J126" s="3">
         <v>12</v>
@@ -6953,7 +6989,7 @@
         <v>300</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6970,19 +7006,19 @@
         <v>36</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H127" s="3">
         <v>0</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J127" s="3">
         <v>12</v>
@@ -6994,7 +7030,7 @@
         <v>300</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7011,19 +7047,19 @@
         <v>36</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H128" s="3">
         <v>0</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J128" s="3">
         <v>12</v>
@@ -7035,7 +7071,7 @@
         <v>300</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7052,19 +7088,19 @@
         <v>36</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H129" s="3">
         <v>0</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J129" s="3">
         <v>12</v>
@@ -7076,7 +7112,7 @@
         <v>300</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7093,19 +7129,19 @@
         <v>36</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H130" s="3">
         <v>0</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J130" s="3">
         <v>12</v>
@@ -7117,7 +7153,7 @@
         <v>300</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7134,19 +7170,19 @@
         <v>36</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H131" s="3">
         <v>0</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J131" s="3">
         <v>12</v>
@@ -7158,7 +7194,7 @@
         <v>300</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7175,19 +7211,19 @@
         <v>36</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H132" s="3">
         <v>0</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J132" s="3">
         <v>12</v>
@@ -7199,7 +7235,7 @@
         <v>300</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7216,19 +7252,19 @@
         <v>36</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H133" s="3">
         <v>0</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J133" s="3">
         <v>12</v>
@@ -7240,7 +7276,7 @@
         <v>300</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7257,34 +7293,34 @@
         <v>36</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="H134" s="3">
         <v>0</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>369</v>
+        <v>315</v>
       </c>
       <c r="J134" s="3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K134" s="4">
-        <v>4.0083000000000001E-2</v>
+        <v>6.3464000000000007E-2</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>300</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -7298,31 +7334,31 @@
         <v>36</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H135" s="3">
         <v>0</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="J135" s="3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K135" s="4">
-        <v>6.3464000000000007E-2</v>
+        <v>7.6825000000000004E-2</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>300</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -7339,31 +7375,31 @@
         <v>36</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>317</v>
+        <v>388</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>318</v>
+        <v>389</v>
       </c>
       <c r="H136" s="3">
         <v>0</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>319</v>
+        <v>390</v>
       </c>
       <c r="J136" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K136" s="4">
-        <v>7.6825000000000004E-2</v>
+        <v>7.3484999999999995E-2</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>300</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -7380,19 +7416,19 @@
         <v>36</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>323</v>
+        <v>388</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>324</v>
+        <v>389</v>
       </c>
       <c r="H137" s="3">
         <v>0</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>325</v>
+        <v>390</v>
       </c>
       <c r="J137" s="3">
         <v>22</v>
@@ -7404,10 +7440,10 @@
         <v>300</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>13</v>
       </c>
@@ -7421,7 +7457,7 @@
         <v>36</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>323</v>
@@ -7436,10 +7472,10 @@
         <v>325</v>
       </c>
       <c r="J138" s="3">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K138" s="4">
-        <v>7.3484999999999995E-2</v>
+        <v>5.3443999999999998E-2</v>
       </c>
       <c r="L138" s="1" t="s">
         <v>300</v>
@@ -7448,7 +7484,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>13</v>
       </c>
@@ -7462,31 +7498,318 @@
         <v>36</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>374</v>
+        <v>308</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>327</v>
+        <v>388</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>328</v>
+        <v>389</v>
       </c>
       <c r="H139" s="3">
         <v>0</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="J139" s="3">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K139" s="4">
-        <v>5.3443999999999998E-2</v>
+        <v>7.3484999999999995E-2</v>
       </c>
       <c r="L139" s="1" t="s">
         <v>300</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A140" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H140" s="3">
+        <v>0</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J140" s="3">
+        <v>19</v>
+      </c>
+      <c r="K140" s="4">
+        <v>6.3464000000000007E-2</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A141" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H141" s="3">
+        <v>0</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="J141" s="3">
+        <v>18</v>
+      </c>
+      <c r="K141" s="4">
+        <v>6.0123999999999997E-2</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A142" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="H142" s="3">
+        <v>0</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="J142" s="3">
+        <v>10</v>
+      </c>
+      <c r="K142" s="4">
+        <v>3.3402000000000001E-2</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A143" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H143" s="3">
+        <v>0</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="J143" s="3">
+        <v>11</v>
+      </c>
+      <c r="K143" s="4">
+        <v>3.6742999999999998E-2</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A144" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H144" s="3">
+        <v>0</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="J144" s="3">
+        <v>10</v>
+      </c>
+      <c r="K144" s="4">
+        <v>3.3402000000000001E-2</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M144" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A145" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="H145" s="3">
+        <v>0</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="J145" s="3">
+        <v>14</v>
+      </c>
+      <c r="K145" s="4">
+        <v>4.6762999999999999E-2</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A146" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="H146" s="3">
+        <v>0</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J146" s="3">
+        <v>9</v>
+      </c>
+      <c r="K146" s="4">
+        <v>3.0061999999999998E-2</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/data/coded_segments/zm_6_4.xlsx
+++ b/data/coded_segments/zm_6_4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3EE41B5-68A4-BC49-9E72-FB285167C95B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E0F6983-8CD1-D247-B370-6DE42C8641A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="422">
   <si>
     <t>Color</t>
   </si>
@@ -1298,6 +1298,60 @@
   </si>
   <si>
     <t>S. boydii</t>
+  </si>
+  <si>
+    <t>Event month</t>
+  </si>
+  <si>
+    <t>2: 1538</t>
+  </si>
+  <si>
+    <t>2: 1546</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>11/14/18 13:28:00</t>
+  </si>
+  <si>
+    <t>2: 1557</t>
+  </si>
+  <si>
+    <t>2: 1561</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>11/14/18 13:29:00</t>
+  </si>
+  <si>
+    <t>Event year</t>
+  </si>
+  <si>
+    <t>2: 1548</t>
+  </si>
+  <si>
+    <t>2: 1551</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2: 1563</t>
+  </si>
+  <si>
+    <t>2: 1566</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
   </si>
 </sst>
 </file>
@@ -1812,7 +1866,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:M154"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7812,6 +7866,334 @@
         <v>394</v>
       </c>
     </row>
+    <row r="147" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A147" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H147" s="3">
+        <v>0</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="J147" s="3">
+        <v>9</v>
+      </c>
+      <c r="K147" s="4">
+        <v>3.0061999999999998E-2</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A148" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H148" s="3">
+        <v>0</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="J148" s="3">
+        <v>5</v>
+      </c>
+      <c r="K148" s="4">
+        <v>1.6701000000000001E-2</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="H149" s="3">
+        <v>0</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="J149" s="3">
+        <v>4</v>
+      </c>
+      <c r="K149" s="4">
+        <v>1.3361E-2</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M149" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A150" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="H150" s="3">
+        <v>0</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="J150" s="3">
+        <v>4</v>
+      </c>
+      <c r="K150" s="4">
+        <v>1.3361E-2</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A151" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H151" s="3">
+        <v>0</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="J151" s="3">
+        <v>9</v>
+      </c>
+      <c r="K151" s="4">
+        <v>3.0061999999999998E-2</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M151" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A152" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="H152" s="3">
+        <v>0</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="J152" s="3">
+        <v>4</v>
+      </c>
+      <c r="K152" s="4">
+        <v>1.3361E-2</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A153" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H153" s="3">
+        <v>0</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="J153" s="3">
+        <v>5</v>
+      </c>
+      <c r="K153" s="4">
+        <v>1.6701000000000001E-2</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A154" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="H154" s="3">
+        <v>0</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="J154" s="3">
+        <v>4</v>
+      </c>
+      <c r="K154" s="4">
+        <v>1.3361E-2</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M154" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/data/coded_segments/zm_6_4.xlsx
+++ b/data/coded_segments/zm_6_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E0F6983-8CD1-D247-B370-6DE42C8641A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2ED2E9D-6E62-244D-B3C8-0A3ED1C46FA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="438">
   <si>
     <t>Color</t>
   </si>
@@ -1245,6 +1245,18 @@
     <t>10/30/18 15:39:00</t>
   </si>
   <si>
+    <t>3: 4496</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> trimethoprim</t>
+  </si>
+  <si>
+    <t>chen</t>
+  </si>
+  <si>
+    <t>1/31/19 13:50:08</t>
+  </si>
+  <si>
     <t>10/30/18 15:40:00</t>
   </si>
   <si>
@@ -1352,6 +1364,42 @@
   </si>
   <si>
     <t>J</t>
+  </si>
+  <si>
+    <t>1/31/19 13:46:42</t>
+  </si>
+  <si>
+    <t>1/31/19 13:46:48</t>
+  </si>
+  <si>
+    <t>1/31/19 13:47:04</t>
+  </si>
+  <si>
+    <t>1/31/19 13:51:58</t>
+  </si>
+  <si>
+    <t>1/31/19 13:47:31</t>
+  </si>
+  <si>
+    <t>1/31/19 13:47:40</t>
+  </si>
+  <si>
+    <t>1/31/19 13:47:44</t>
+  </si>
+  <si>
+    <t>1/31/19 13:47:52</t>
+  </si>
+  <si>
+    <t>1/31/19 13:47:58</t>
+  </si>
+  <si>
+    <t>1/31/19 13:48:14</t>
+  </si>
+  <si>
+    <t>1/31/19 13:48:18</t>
+  </si>
+  <si>
+    <t>1/31/19 13:48:49</t>
   </si>
 </sst>
 </file>
@@ -1866,7 +1914,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M154"/>
+  <dimension ref="A1:M166"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7268,7 +7316,7 @@
         <v>370</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>365</v>
@@ -7277,19 +7325,19 @@
         <v>0</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="J132" s="3">
         <v>12</v>
       </c>
       <c r="K132" s="4">
-        <v>4.0083000000000001E-2</v>
+        <v>4.0082837864920839E-2</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>300</v>
+        <v>388</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7371,7 +7419,7 @@
         <v>300</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -7412,7 +7460,7 @@
         <v>300</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -7432,16 +7480,16 @@
         <v>369</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H136" s="3">
         <v>0</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="J136" s="3">
         <v>22</v>
@@ -7453,7 +7501,7 @@
         <v>300</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -7473,16 +7521,16 @@
         <v>370</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H137" s="3">
         <v>0</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="J137" s="3">
         <v>22</v>
@@ -7494,7 +7542,7 @@
         <v>300</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7535,7 +7583,7 @@
         <v>300</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -7555,16 +7603,16 @@
         <v>308</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H139" s="3">
         <v>0</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="J139" s="3">
         <v>22</v>
@@ -7576,7 +7624,7 @@
         <v>300</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7617,7 +7665,7 @@
         <v>300</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7658,7 +7706,7 @@
         <v>300</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7681,13 +7729,13 @@
         <v>313</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="H142" s="3">
         <v>0</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="J142" s="3">
         <v>10</v>
@@ -7699,7 +7747,7 @@
         <v>300</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7722,13 +7770,13 @@
         <v>317</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H143" s="3">
         <v>0</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="J143" s="3">
         <v>11</v>
@@ -7740,7 +7788,7 @@
         <v>300</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7763,13 +7811,13 @@
         <v>320</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H144" s="3">
         <v>0</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="J144" s="3">
         <v>10</v>
@@ -7781,7 +7829,7 @@
         <v>300</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="145" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7801,16 +7849,16 @@
         <v>114</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H145" s="3">
         <v>0</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="J145" s="3">
         <v>14</v>
@@ -7822,7 +7870,7 @@
         <v>300</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7845,13 +7893,13 @@
         <v>323</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H146" s="3">
         <v>0</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="J146" s="3">
         <v>9</v>
@@ -7863,7 +7911,7 @@
         <v>300</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="147" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7880,19 +7928,19 @@
         <v>36</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H147" s="3">
         <v>0</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="J147" s="3">
         <v>9</v>
@@ -7904,7 +7952,7 @@
         <v>300</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="148" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7921,19 +7969,19 @@
         <v>36</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H148" s="3">
         <v>0</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="J148" s="3">
         <v>5</v>
@@ -7945,7 +7993,7 @@
         <v>300</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7962,19 +8010,19 @@
         <v>36</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H149" s="3">
         <v>0</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J149" s="3">
         <v>4</v>
@@ -7986,7 +8034,7 @@
         <v>300</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="150" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8003,19 +8051,19 @@
         <v>36</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H150" s="3">
         <v>0</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="J150" s="3">
         <v>4</v>
@@ -8027,7 +8075,7 @@
         <v>300</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8044,19 +8092,19 @@
         <v>36</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H151" s="3">
         <v>0</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="J151" s="3">
         <v>9</v>
@@ -8068,7 +8116,7 @@
         <v>300</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8085,19 +8133,19 @@
         <v>36</v>
       </c>
       <c r="E152" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="H152" s="3">
+        <v>0</v>
+      </c>
+      <c r="I152" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="H152" s="3">
-        <v>0</v>
-      </c>
-      <c r="I152" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="J152" s="3">
         <v>4</v>
@@ -8109,7 +8157,7 @@
         <v>300</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="153" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8126,19 +8174,19 @@
         <v>36</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H153" s="3">
         <v>0</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="J153" s="3">
         <v>5</v>
@@ -8150,7 +8198,7 @@
         <v>300</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="154" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8167,19 +8215,19 @@
         <v>36</v>
       </c>
       <c r="E154" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F154" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="F154" s="1" t="s">
-        <v>417</v>
-      </c>
       <c r="G154" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H154" s="3">
         <v>0</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="J154" s="3">
         <v>4</v>
@@ -8191,7 +8239,499 @@
         <v>300</v>
       </c>
       <c r="M154" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A155" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H155" s="3">
+        <v>0</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="J155" s="3">
+        <v>10</v>
+      </c>
+      <c r="K155" s="4">
+        <v>3.3402364887434033E-2</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A156" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H156" s="3">
+        <v>0</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="J156" s="3">
+        <v>13</v>
+      </c>
+      <c r="K156" s="4">
+        <v>4.3423074353664236E-2</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="M156" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A157" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H157" s="3">
+        <v>0</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="J157" s="3">
+        <v>15</v>
+      </c>
+      <c r="K157" s="4">
+        <v>5.0103547331151049E-2</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A158" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H158" s="3">
+        <v>0</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J158" s="3">
+        <v>12</v>
+      </c>
+      <c r="K158" s="4">
+        <v>4.0082837864920839E-2</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A159" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H159" s="3">
+        <v>0</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J159" s="3">
+        <v>12</v>
+      </c>
+      <c r="K159" s="4">
+        <v>4.0082837864920839E-2</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A160" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H160" s="3">
+        <v>0</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="J160" s="3">
+        <v>9</v>
+      </c>
+      <c r="K160" s="4">
+        <v>3.0062128398690626E-2</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A161" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H161" s="3">
+        <v>0</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="J161" s="3">
+        <v>10</v>
+      </c>
+      <c r="K161" s="4">
+        <v>3.3402364887434033E-2</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A162" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H162" s="3">
+        <v>0</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="J162" s="3">
+        <v>27</v>
+      </c>
+      <c r="K162" s="4">
+        <v>9.0186385196071875E-2</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="M162" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A163" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H163" s="3">
+        <v>0</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="J163" s="3">
+        <v>13</v>
+      </c>
+      <c r="K163" s="4">
+        <v>4.3423074353664236E-2</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="M163" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A164" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H164" s="3">
+        <v>0</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="J164" s="3">
+        <v>8</v>
+      </c>
+      <c r="K164" s="4">
+        <v>2.6721891909947226E-2</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="M164" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A165" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H165" s="3">
+        <v>0</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="J165" s="3">
+        <v>10</v>
+      </c>
+      <c r="K165" s="4">
+        <v>3.3402364887434033E-2</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="M165" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A166" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H166" s="3">
+        <v>0</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="J166" s="3">
+        <v>12</v>
+      </c>
+      <c r="K166" s="4">
+        <v>4.0082837864920839E-2</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="M166" s="1" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>
